--- a/Code/Results/Cases/Case_5_44/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_44/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,845 +409,995 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.65744972409867</v>
+        <v>18.0733966701372</v>
       </c>
       <c r="C2">
-        <v>15.94699468948645</v>
+        <v>10.48023484440198</v>
       </c>
       <c r="D2">
-        <v>3.542249116740172</v>
+        <v>5.59161207758393</v>
       </c>
       <c r="E2">
-        <v>8.356567131603635</v>
+        <v>7.342190398878803</v>
       </c>
       <c r="F2">
-        <v>40.38797260014874</v>
+        <v>38.15971296234652</v>
       </c>
       <c r="I2">
-        <v>26.11997968088178</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>7.814420325416109</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>16.8340416979695</v>
+        <v>14.78685940833342</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>6.191687053237647</v>
       </c>
       <c r="M2">
-        <v>15.31237573592242</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>11.4421175910315</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>30.54207850868367</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.40651918220134</v>
+        <v>16.84816686406513</v>
       </c>
       <c r="C3">
-        <v>14.78754285002364</v>
+        <v>9.991015111282211</v>
       </c>
       <c r="D3">
-        <v>3.576016626023448</v>
+        <v>5.63889702948168</v>
       </c>
       <c r="E3">
-        <v>7.994636511536253</v>
+        <v>7.365304912113711</v>
       </c>
       <c r="F3">
-        <v>38.42732951367737</v>
+        <v>36.656384680197</v>
       </c>
       <c r="I3">
-        <v>25.20797981532908</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>7.623167815985586</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>15.6584095105183</v>
+        <v>13.77012915037716</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>6.120271880391939</v>
       </c>
       <c r="M3">
-        <v>14.25451221535457</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>11.01434225739917</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>29.53059257865564</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.5992568255127</v>
+        <v>16.11632447716088</v>
       </c>
       <c r="C4">
-        <v>14.04129899926922</v>
+        <v>9.679446797686023</v>
       </c>
       <c r="D4">
-        <v>3.596927901746673</v>
+        <v>5.668665524594937</v>
       </c>
       <c r="E4">
-        <v>7.77221794441879</v>
+        <v>7.380864204172754</v>
       </c>
       <c r="F4">
-        <v>37.21275939635549</v>
+        <v>35.7340991302677</v>
       </c>
       <c r="I4">
-        <v>24.65451179898234</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>7.509795316495982</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>14.90048159826544</v>
+        <v>13.11322640803742</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.079430794745678</v>
       </c>
       <c r="M4">
-        <v>13.57322139883921</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>10.75197285580634</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>28.91646233711252</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.2602708275333</v>
+        <v>15.81150388493003</v>
       </c>
       <c r="C5">
-        <v>13.72839886219358</v>
+        <v>9.549690097245755</v>
       </c>
       <c r="D5">
-        <v>3.605494769993634</v>
+        <v>5.680980128713483</v>
       </c>
       <c r="E5">
-        <v>7.68161327892468</v>
+        <v>7.387540502011001</v>
       </c>
       <c r="F5">
-        <v>36.7155125513039</v>
+        <v>35.35879521412566</v>
       </c>
       <c r="I5">
-        <v>24.43070135606127</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>7.46460500798977</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>14.58238980743415</v>
+        <v>12.83722308713781</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.063533785806622</v>
       </c>
       <c r="M5">
-        <v>13.28747024959856</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>10.64525889293977</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>28.66810931365767</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.20337259901864</v>
+        <v>15.76049662483726</v>
       </c>
       <c r="C6">
-        <v>13.67590597090224</v>
+        <v>9.527976544816545</v>
       </c>
       <c r="D6">
-        <v>3.606920056096673</v>
+        <v>5.683036028511358</v>
       </c>
       <c r="E6">
-        <v>7.666573098218373</v>
+        <v>7.388669154943804</v>
       </c>
       <c r="F6">
-        <v>36.63281982752446</v>
+        <v>35.29651955586034</v>
       </c>
       <c r="I6">
-        <v>24.39364568220187</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>7.457161914430949</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>14.5290090954559</v>
+        <v>12.79088807521065</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.060938848131343</v>
       </c>
       <c r="M6">
-        <v>13.2395274256899</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>10.62755555460544</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>28.62699112391487</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.59472592559287</v>
+        <v>16.11223998070103</v>
       </c>
       <c r="C7">
-        <v>14.03711495757027</v>
+        <v>9.677708109247414</v>
       </c>
       <c r="D7">
-        <v>3.597043252805476</v>
+        <v>5.668830861080452</v>
       </c>
       <c r="E7">
-        <v>7.770995766875948</v>
+        <v>7.380952893612802</v>
       </c>
       <c r="F7">
-        <v>37.20606206124187</v>
+        <v>35.72903499545666</v>
       </c>
       <c r="I7">
-        <v>24.65148625475879</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>7.509181787571404</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>14.89622927131331</v>
+        <v>13.10953791320408</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.079213395332269</v>
       </c>
       <c r="M7">
-        <v>13.56940070241363</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>10.75053266442503</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>28.91310499130811</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.23415838567631</v>
+        <v>17.63953123840319</v>
       </c>
       <c r="C8">
-        <v>15.55423779611496</v>
+        <v>10.31388207437205</v>
       </c>
       <c r="D8">
-        <v>3.553855489603429</v>
+        <v>5.607762423156102</v>
       </c>
       <c r="E8">
-        <v>8.231856433815864</v>
+        <v>7.349871590012668</v>
       </c>
       <c r="F8">
-        <v>39.7143748739134</v>
+        <v>37.64139615296849</v>
       </c>
       <c r="I8">
-        <v>25.80422249844636</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>7.74762739206461</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>16.43607530211079</v>
+        <v>14.44299622121996</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>6.166432621076258</v>
       </c>
       <c r="M8">
-        <v>14.95413110697934</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>11.29463540095818</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>30.19197487602085</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.1462711002837</v>
+        <v>20.62349779418108</v>
       </c>
       <c r="C9">
-        <v>18.26515442347137</v>
+        <v>11.4725173075669</v>
       </c>
       <c r="D9">
-        <v>3.470571430220427</v>
+        <v>5.493925818691355</v>
       </c>
       <c r="E9">
-        <v>9.131503627618661</v>
+        <v>7.300162353096604</v>
       </c>
       <c r="F9">
-        <v>44.5364273596963</v>
+        <v>41.38555165317646</v>
       </c>
       <c r="I9">
-        <v>28.11371189635216</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>8.248077716009778</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>19.1771237287282</v>
+        <v>16.80422118604011</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>6.361805962605346</v>
       </c>
       <c r="M9">
-        <v>17.4243724043938</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>12.35898412623841</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>32.74878761391388</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.11358057249447</v>
+        <v>22.63514857448791</v>
       </c>
       <c r="C10">
-        <v>20.10872838415023</v>
+        <v>12.27057991874403</v>
       </c>
       <c r="D10">
-        <v>3.410289752856662</v>
+        <v>5.414075198148022</v>
       </c>
       <c r="E10">
-        <v>9.788108436354472</v>
+        <v>7.27110882817334</v>
       </c>
       <c r="F10">
-        <v>48.01359356359966</v>
+        <v>44.12160698189837</v>
       </c>
       <c r="I10">
-        <v>29.83995199818355</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>8.637202691279313</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>21.0330873779347</v>
+        <v>18.3922428006123</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>6.520879202241982</v>
       </c>
       <c r="M10">
-        <v>19.10042043491745</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>13.29218643950926</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>34.65174019904838</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.97427267101933</v>
+        <v>23.51323889974679</v>
       </c>
       <c r="C11">
-        <v>20.91855947011424</v>
+        <v>12.62263969680602</v>
       </c>
       <c r="D11">
-        <v>3.383098665371219</v>
+        <v>5.378634813106702</v>
       </c>
       <c r="E11">
-        <v>10.08595948401832</v>
+        <v>7.259671619488878</v>
       </c>
       <c r="F11">
-        <v>49.5824443027609</v>
+        <v>45.36228326619947</v>
       </c>
       <c r="I11">
-        <v>30.63263134308755</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>8.819378236824102</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>21.84616580705004</v>
+        <v>19.08474811898366</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>6.596793297147446</v>
       </c>
       <c r="M11">
-        <v>19.83549557187159</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>13.79199858234077</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>35.52250363844463</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.29556332702457</v>
+        <v>23.84063281611992</v>
       </c>
       <c r="C12">
-        <v>21.22139415639506</v>
+        <v>12.75444286742373</v>
       </c>
       <c r="D12">
-        <v>3.37284100129164</v>
+        <v>5.365349414302975</v>
       </c>
       <c r="E12">
-        <v>10.19866877588635</v>
+        <v>7.255611857037461</v>
       </c>
       <c r="F12">
-        <v>50.17494954225333</v>
+        <v>45.8315624113282</v>
       </c>
       <c r="I12">
-        <v>30.93402502363228</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>8.889163499226136</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>22.14985853787465</v>
+        <v>19.34286221550603</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>6.626067488197377</v>
       </c>
       <c r="M12">
-        <v>20.1101770320929</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>13.97829583224071</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>35.85301777728074</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.22656875830437</v>
+        <v>23.77034686671798</v>
       </c>
       <c r="C13">
-        <v>21.15633821374013</v>
+        <v>12.72612281507492</v>
       </c>
       <c r="D13">
-        <v>3.375048318761582</v>
+        <v>5.368204502392886</v>
       </c>
       <c r="E13">
-        <v>10.17439743331686</v>
+        <v>7.256473868517402</v>
       </c>
       <c r="F13">
-        <v>50.04740743755983</v>
+        <v>45.73051721067666</v>
       </c>
       <c r="I13">
-        <v>30.86905677333246</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>8.874097348277193</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>22.08463483297991</v>
+        <v>19.28745308113554</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>6.619739024407195</v>
       </c>
       <c r="M13">
-        <v>20.05117842018801</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>13.93830340817612</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>35.78179988509614</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.00079654354787</v>
+        <v>23.54027514570702</v>
       </c>
       <c r="C14">
-        <v>20.9435486894206</v>
+        <v>12.63351313414223</v>
       </c>
       <c r="D14">
-        <v>3.382253937354954</v>
+        <v>5.377539053878472</v>
       </c>
       <c r="E14">
-        <v>10.09523342145498</v>
+        <v>7.25933208862972</v>
       </c>
       <c r="F14">
-        <v>49.63121971649164</v>
+        <v>45.40090142379253</v>
       </c>
       <c r="I14">
-        <v>30.65740149363388</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>8.825103103760689</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>21.87123324625777</v>
+        <v>19.10606487103679</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>6.599191031364761</v>
       </c>
       <c r="M14">
-        <v>19.85816583081648</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>13.80738415498111</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>35.54967925693838</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.86191018265938</v>
+        <v>23.39868929898528</v>
       </c>
       <c r="C15">
-        <v>20.81272010572271</v>
+        <v>12.57659206831689</v>
       </c>
       <c r="D15">
-        <v>3.386672880648024</v>
+        <v>5.383274605997242</v>
       </c>
       <c r="E15">
-        <v>10.04673440191957</v>
+        <v>7.261118647839779</v>
       </c>
       <c r="F15">
-        <v>49.37609706360226</v>
+        <v>45.19893465008775</v>
       </c>
       <c r="I15">
-        <v>30.52792179417147</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>8.795198799496944</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>21.73998043377473</v>
+        <v>18.99442800219079</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>6.586673988901323</v>
       </c>
       <c r="M15">
-        <v>19.73946968958728</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>13.72680933242441</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>35.40760182334307</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.05666716242311</v>
+        <v>22.57703520089273</v>
       </c>
       <c r="C16">
-        <v>20.05524995142119</v>
+        <v>12.24735614510247</v>
       </c>
       <c r="D16">
-        <v>3.412071845346814</v>
+        <v>5.416409732803158</v>
       </c>
       <c r="E16">
-        <v>9.768629052507571</v>
+        <v>7.27189335328072</v>
       </c>
       <c r="F16">
-        <v>47.91082544390537</v>
+        <v>44.04044679869732</v>
       </c>
       <c r="I16">
-        <v>29.78830942036781</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>8.625405454814985</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>20.97934636225053</v>
+        <v>18.34639905292432</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>6.515990839187781</v>
       </c>
       <c r="M16">
-        <v>19.05185228335209</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>13.25909981967454</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>34.5949386204359</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.55410057276661</v>
+        <v>22.06363234557388</v>
       </c>
       <c r="C17">
-        <v>19.58339544354676</v>
+        <v>12.04260839654572</v>
       </c>
       <c r="D17">
-        <v>3.427715885800851</v>
+        <v>5.43696849716785</v>
       </c>
       <c r="E17">
-        <v>9.597824796044229</v>
+        <v>7.278969372314615</v>
       </c>
       <c r="F17">
-        <v>47.00876668618906</v>
+        <v>43.32873120338082</v>
       </c>
       <c r="I17">
-        <v>29.33656771518079</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>8.522600158387267</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>20.50492057795194</v>
+        <v>17.94131749930048</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>6.473549368876165</v>
       </c>
       <c r="M17">
-        <v>18.62318620455546</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>12.96674797218918</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>34.09771385883516</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.26179480638558</v>
+        <v>21.76483848308179</v>
       </c>
       <c r="C18">
-        <v>19.30926352201448</v>
+        <v>11.92380419278262</v>
       </c>
       <c r="D18">
-        <v>3.436735230347387</v>
+        <v>5.448875971907435</v>
       </c>
       <c r="E18">
-        <v>9.499499352126371</v>
+        <v>7.283205765879219</v>
       </c>
       <c r="F18">
-        <v>46.48868414326896</v>
+        <v>42.91899038994757</v>
       </c>
       <c r="I18">
-        <v>29.07742110400075</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>8.463950695447634</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>20.22908684158629</v>
+        <v>17.70550003186617</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>6.449471242374378</v>
       </c>
       <c r="M18">
-        <v>18.37403542471716</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>12.79656149683603</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>33.81219756170004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.16225988405806</v>
+        <v>21.66306541591855</v>
       </c>
       <c r="C19">
-        <v>19.21596875706255</v>
+        <v>11.88339903181286</v>
       </c>
       <c r="D19">
-        <v>3.439792548566371</v>
+        <v>5.452921619614718</v>
       </c>
       <c r="E19">
-        <v>9.46619295526221</v>
+        <v>7.284668287275775</v>
       </c>
       <c r="F19">
-        <v>46.31237378918557</v>
+        <v>42.78019421212063</v>
       </c>
       <c r="I19">
-        <v>28.98979221101212</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>8.444174200118946</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>20.13517836848805</v>
+        <v>17.62516597062188</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>6.441375552289267</v>
       </c>
       <c r="M19">
-        <v>18.28922446197654</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>12.75448331640511</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>33.71560777716732</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.60793326970974</v>
+        <v>22.118645603677</v>
       </c>
       <c r="C20">
-        <v>19.633905947626</v>
+        <v>12.06451123102458</v>
       </c>
       <c r="D20">
-        <v>3.42604831202127</v>
+        <v>5.434771380174476</v>
       </c>
       <c r="E20">
-        <v>9.616015624018846</v>
+        <v>7.278198785362822</v>
       </c>
       <c r="F20">
-        <v>47.10491942032144</v>
+        <v>43.40453399959764</v>
       </c>
       <c r="I20">
-        <v>29.38458475865216</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>8.53349376997237</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>20.5557280545527</v>
+        <v>17.98473030885493</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>6.478032752279364</v>
       </c>
       <c r="M20">
-        <v>18.66908507197264</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>12.99807892274155</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>34.15059508676201</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.06723461006032</v>
+        <v>23.6079899877985</v>
       </c>
       <c r="C21">
-        <v>21.00615138742585</v>
+        <v>12.66075533088728</v>
       </c>
       <c r="D21">
-        <v>3.380136355319545</v>
+        <v>5.374793528287855</v>
       </c>
       <c r="E21">
-        <v>10.11848752603385</v>
+        <v>7.258485065557117</v>
       </c>
       <c r="F21">
-        <v>49.75350421154273</v>
+        <v>45.49773147144919</v>
       </c>
       <c r="I21">
-        <v>30.71953494802306</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>8.839471666234513</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>21.93402605829598</v>
+        <v>19.15945337816273</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>6.605212020496539</v>
       </c>
       <c r="M21">
-        <v>19.91495581487362</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>13.84591789132215</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>35.61783705689742</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.99411967263928</v>
+        <v>24.55163381797356</v>
       </c>
       <c r="C22">
-        <v>21.88084205823035</v>
+        <v>13.0416524085275</v>
       </c>
       <c r="D22">
-        <v>3.350362274216219</v>
+        <v>5.336387462149785</v>
       </c>
       <c r="E22">
-        <v>10.44645323689176</v>
+        <v>7.247190773185919</v>
       </c>
       <c r="F22">
-        <v>51.4755083650756</v>
+        <v>46.86270055164609</v>
       </c>
       <c r="I22">
-        <v>31.59926111481466</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>9.044144597563305</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>22.81048919198018</v>
+        <v>19.90326838668266</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>6.691413849728646</v>
       </c>
       <c r="M22">
-        <v>20.70792756991134</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>14.38278066882039</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>36.58134412461201</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.5017750313659</v>
+        <v>24.05063942679844</v>
       </c>
       <c r="C23">
-        <v>21.41591495276942</v>
+        <v>12.83913790652007</v>
       </c>
       <c r="D23">
-        <v>3.366229429897314</v>
+        <v>5.35680969948367</v>
       </c>
       <c r="E23">
-        <v>10.27142989236547</v>
+        <v>7.253067661505058</v>
       </c>
       <c r="F23">
-        <v>50.55713556853436</v>
+        <v>46.13443637368786</v>
       </c>
       <c r="I23">
-        <v>31.12899814890335</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>8.934453333810803</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>22.34482654686412</v>
+        <v>19.50840722019849</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>6.645117917276861</v>
       </c>
       <c r="M23">
-        <v>20.28655512416238</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>14.09778096281355</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>36.06665384136465</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.58360603664989</v>
+        <v>22.09378543675292</v>
       </c>
       <c r="C24">
-        <v>19.61107906912491</v>
+        <v>12.05461236556803</v>
       </c>
       <c r="D24">
-        <v>3.426802143491786</v>
+        <v>5.43576442334572</v>
       </c>
       <c r="E24">
-        <v>9.607791951436154</v>
+        <v>7.278546644654857</v>
       </c>
       <c r="F24">
-        <v>47.06145338841796</v>
+        <v>43.3702653198254</v>
       </c>
       <c r="I24">
-        <v>29.36287450221901</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>8.528567356056801</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>20.53276760904426</v>
+        <v>17.96511251915564</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>6.476004812767032</v>
       </c>
       <c r="M24">
-        <v>18.64834263844888</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>12.9839207797945</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>34.12668641185537</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.38967761698198</v>
+        <v>19.84864434009148</v>
       </c>
       <c r="C25">
-        <v>17.55881311976233</v>
+        <v>11.16854769667529</v>
       </c>
       <c r="D25">
-        <v>3.492949888967716</v>
+        <v>5.524073718446753</v>
       </c>
       <c r="E25">
-        <v>8.888840054105499</v>
+        <v>7.31234732139032</v>
       </c>
       <c r="F25">
-        <v>43.24343393340547</v>
+        <v>40.37471187069286</v>
       </c>
       <c r="I25">
-        <v>27.48389859781205</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>8.109056748064877</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>18.46426296558841</v>
+        <v>16.19183287630834</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>6.306277812987068</v>
       </c>
       <c r="M25">
-        <v>16.78133258393396</v>
+        <v>12.07193940690745</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>32.05256048984783</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_44/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_44/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.0733966701372</v>
+        <v>14.12035241250455</v>
       </c>
       <c r="C2">
-        <v>10.48023484440198</v>
+        <v>9.11585367667943</v>
       </c>
       <c r="D2">
-        <v>5.59161207758393</v>
+        <v>4.662929104456806</v>
       </c>
       <c r="E2">
-        <v>7.342190398878803</v>
+        <v>29.53879786918715</v>
       </c>
       <c r="F2">
-        <v>38.15971296234652</v>
+        <v>17.80078155533923</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>12.55053810938387</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>14.78685940833342</v>
+        <v>13.05582271223944</v>
       </c>
       <c r="L2">
-        <v>6.191687053237647</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>11.4421175910315</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>30.54207850868367</v>
+        <v>14.09471163310054</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,40 +462,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.84816686406513</v>
+        <v>13.24897914942749</v>
       </c>
       <c r="C3">
-        <v>9.991015111282211</v>
+        <v>8.606258930415105</v>
       </c>
       <c r="D3">
-        <v>5.63889702948168</v>
+        <v>4.518399001635085</v>
       </c>
       <c r="E3">
-        <v>7.365304912113711</v>
+        <v>27.40475874501704</v>
       </c>
       <c r="F3">
-        <v>36.656384680197</v>
+        <v>17.42858056030524</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>12.7258404637795</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>13.77012915037716</v>
+        <v>12.3323834985241</v>
       </c>
       <c r="L3">
-        <v>6.120271880391939</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>11.01434225739917</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>29.53059257865564</v>
+        <v>14.05629736345585</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,40 +503,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.11632447716088</v>
+        <v>12.68453588634342</v>
       </c>
       <c r="C4">
-        <v>9.679446797686023</v>
+        <v>8.278322811109232</v>
       </c>
       <c r="D4">
-        <v>5.668665524594937</v>
+        <v>4.42671571347577</v>
       </c>
       <c r="E4">
-        <v>7.380864204172754</v>
+        <v>26.03082160910766</v>
       </c>
       <c r="F4">
-        <v>35.7340991302677</v>
+        <v>17.21767565573754</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>12.84614180910486</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>13.11322640803742</v>
+        <v>11.8663096275465</v>
       </c>
       <c r="L4">
-        <v>6.079430794745678</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>10.75197285580634</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>28.91646233711252</v>
+        <v>14.04931470589847</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,40 +544,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.81150388493003</v>
+        <v>12.44713614679254</v>
       </c>
       <c r="C5">
-        <v>9.549690097245755</v>
+        <v>8.140943553494928</v>
       </c>
       <c r="D5">
-        <v>5.680980128713483</v>
+        <v>4.388648962817075</v>
       </c>
       <c r="E5">
-        <v>7.387540502011001</v>
+        <v>25.4546377705318</v>
       </c>
       <c r="F5">
-        <v>35.35879521412566</v>
+        <v>17.1361318336664</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>12.89817481784009</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>12.83722308713781</v>
+        <v>11.6709431028015</v>
       </c>
       <c r="L5">
-        <v>6.063533785806622</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>10.64525889293977</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>28.66810931365767</v>
+        <v>14.05044725619006</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,40 +585,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.76049662483726</v>
+        <v>12.40727075881278</v>
       </c>
       <c r="C6">
-        <v>9.527976544816545</v>
+        <v>8.117907264369354</v>
       </c>
       <c r="D6">
-        <v>5.683036028511358</v>
+        <v>4.382286499416408</v>
       </c>
       <c r="E6">
-        <v>7.388669154943804</v>
+        <v>25.35797053668562</v>
       </c>
       <c r="F6">
-        <v>35.29651955586034</v>
+        <v>17.12285614810168</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>12.9069917407557</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>12.79088807521065</v>
+        <v>11.63817651673499</v>
       </c>
       <c r="L6">
-        <v>6.060938848131343</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>10.62755555460544</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>28.62699112391487</v>
+        <v>14.0508697751559</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,40 +626,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.11223998070103</v>
+        <v>12.68136410270244</v>
       </c>
       <c r="C7">
-        <v>9.677708109247414</v>
+        <v>8.276485155918428</v>
       </c>
       <c r="D7">
-        <v>5.668830861080452</v>
+        <v>4.426205138642855</v>
       </c>
       <c r="E7">
-        <v>7.380952893612802</v>
+        <v>26.02311733993986</v>
       </c>
       <c r="F7">
-        <v>35.72903499545666</v>
+        <v>17.21655815867555</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>12.84683158203545</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>13.10953791320408</v>
+        <v>11.86369676278738</v>
       </c>
       <c r="L7">
-        <v>6.079213395332269</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>10.75053266442503</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>28.91310499130811</v>
+        <v>14.04931413496062</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,40 +667,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.63953123840319</v>
+        <v>13.8260112270509</v>
       </c>
       <c r="C8">
-        <v>10.31388207437205</v>
+        <v>8.943286856241302</v>
       </c>
       <c r="D8">
-        <v>5.607762423156102</v>
+        <v>4.613725238687731</v>
       </c>
       <c r="E8">
-        <v>7.349871590012668</v>
+        <v>28.81600522253774</v>
       </c>
       <c r="F8">
-        <v>37.64139615296849</v>
+        <v>17.66877419761618</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>12.60824383057527</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>14.44299622121996</v>
+        <v>12.81095389694663</v>
       </c>
       <c r="L8">
-        <v>6.166432621076258</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>11.29463540095818</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>30.19197487602085</v>
+        <v>14.07790247810939</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,40 +708,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.62349779418108</v>
+        <v>15.83744580590103</v>
       </c>
       <c r="C9">
-        <v>11.4725173075669</v>
+        <v>10.13052621696657</v>
       </c>
       <c r="D9">
-        <v>5.493925818691355</v>
+        <v>4.956769522813525</v>
       </c>
       <c r="E9">
-        <v>7.300162353096604</v>
+        <v>33.80218767844861</v>
       </c>
       <c r="F9">
-        <v>41.38555165317646</v>
+        <v>18.69612417016285</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>12.24948536151263</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>16.80422118604011</v>
+        <v>14.49313600949234</v>
       </c>
       <c r="L9">
-        <v>6.361805962605346</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>12.35898412623841</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>32.74878761391388</v>
+        <v>14.27435149980524</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,40 +749,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.63514857448791</v>
+        <v>17.17423014673452</v>
       </c>
       <c r="C10">
-        <v>12.27057991874403</v>
+        <v>10.92902733310058</v>
       </c>
       <c r="D10">
-        <v>5.414075198148022</v>
+        <v>5.192186168960322</v>
       </c>
       <c r="E10">
-        <v>7.27110882817334</v>
+        <v>37.18785137141797</v>
       </c>
       <c r="F10">
-        <v>44.12160698189837</v>
+        <v>19.53692164341026</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>12.06546455777083</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>18.3922428006123</v>
+        <v>15.62098014829978</v>
       </c>
       <c r="L10">
-        <v>6.520879202241982</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>13.29218643950926</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>34.65174019904838</v>
+        <v>14.51576481010676</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,40 +790,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.51323889974679</v>
+        <v>17.75220206536927</v>
       </c>
       <c r="C11">
-        <v>12.62263969680602</v>
+        <v>11.27641883333609</v>
       </c>
       <c r="D11">
-        <v>5.378634813106702</v>
+        <v>5.295403033643165</v>
       </c>
       <c r="E11">
-        <v>7.259671619488878</v>
+        <v>38.67306467072071</v>
       </c>
       <c r="F11">
-        <v>45.36228326619947</v>
+        <v>19.93807894341737</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>12.00220682401464</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>19.08474811898366</v>
+        <v>16.11066345839571</v>
       </c>
       <c r="L11">
-        <v>6.596793297147446</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>13.79199858234077</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>35.52250363844463</v>
+        <v>14.64902703641116</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,40 +831,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.84063281611992</v>
+        <v>17.96677852231819</v>
       </c>
       <c r="C12">
-        <v>12.75444286742373</v>
+        <v>11.40571225738686</v>
       </c>
       <c r="D12">
-        <v>5.365349414302975</v>
+        <v>5.333912150628751</v>
       </c>
       <c r="E12">
-        <v>7.255611857037461</v>
+        <v>39.22806530073888</v>
       </c>
       <c r="F12">
-        <v>45.8315624113282</v>
+        <v>20.09267173705432</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>11.98148331394175</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>19.34286221550603</v>
+        <v>16.29275212227334</v>
       </c>
       <c r="L12">
-        <v>6.626067488197377</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>13.97829583224071</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>35.85301777728074</v>
+        <v>14.7030467584411</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,40 +872,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.77034686671798</v>
+        <v>17.92075559620687</v>
       </c>
       <c r="C13">
-        <v>12.72612281507492</v>
+        <v>11.3779664821482</v>
       </c>
       <c r="D13">
-        <v>5.368204502392886</v>
+        <v>5.325644465751195</v>
       </c>
       <c r="E13">
-        <v>7.256473868517402</v>
+        <v>39.10885762076435</v>
       </c>
       <c r="F13">
-        <v>45.73051721067666</v>
+        <v>20.05925801502481</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>11.98579797881231</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>19.28745308113554</v>
+        <v>16.25368437854538</v>
       </c>
       <c r="L13">
-        <v>6.619739024407195</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>13.93830340817612</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>35.78179988509614</v>
+        <v>14.69125158133818</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,40 +913,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.54027514570702</v>
+        <v>17.76994107143624</v>
       </c>
       <c r="C14">
-        <v>12.63351313414223</v>
+        <v>11.28710093294377</v>
       </c>
       <c r="D14">
-        <v>5.377539053878472</v>
+        <v>5.298582866738682</v>
       </c>
       <c r="E14">
-        <v>7.25933208862972</v>
+        <v>38.71887060897897</v>
       </c>
       <c r="F14">
-        <v>45.40090142379253</v>
+        <v>19.95074359107814</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>12.00043540868345</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>19.10606487103679</v>
+        <v>16.12571087315478</v>
       </c>
       <c r="L14">
-        <v>6.599191031364761</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>13.80738415498111</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>35.54967925693838</v>
+        <v>14.65339895538306</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,40 +954,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.39868929898528</v>
+        <v>17.67700573851812</v>
       </c>
       <c r="C15">
-        <v>12.57659206831689</v>
+        <v>11.23115018292594</v>
       </c>
       <c r="D15">
-        <v>5.383274605997242</v>
+        <v>5.281931190906261</v>
       </c>
       <c r="E15">
-        <v>7.261118647839779</v>
+        <v>38.47904156149558</v>
       </c>
       <c r="F15">
-        <v>45.19893465008775</v>
+        <v>19.88462488969287</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>12.00983093847229</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>18.99442800219079</v>
+        <v>16.04688867581182</v>
       </c>
       <c r="L15">
-        <v>6.586673988901323</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>13.72680933242441</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>35.40760182334307</v>
+        <v>14.63068166933364</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,40 +995,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.57703520089273</v>
+        <v>17.13585551819592</v>
       </c>
       <c r="C16">
-        <v>12.24735614510247</v>
+        <v>10.90600728613982</v>
       </c>
       <c r="D16">
-        <v>5.416409732803158</v>
+        <v>5.185360989923908</v>
       </c>
       <c r="E16">
-        <v>7.27189335328072</v>
+        <v>37.08972376444996</v>
       </c>
       <c r="F16">
-        <v>44.04044679869732</v>
+        <v>19.51108048910093</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>12.07003448583436</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>18.34639905292432</v>
+        <v>15.58850903657649</v>
       </c>
       <c r="L16">
-        <v>6.515990839187781</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>13.25909981967454</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>34.5949386204359</v>
+        <v>14.5075434741939</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,40 +1036,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.06363234557388</v>
+        <v>16.79618766354633</v>
       </c>
       <c r="C17">
-        <v>12.04260839654572</v>
+        <v>10.70249636403785</v>
       </c>
       <c r="D17">
-        <v>5.43696849716785</v>
+        <v>5.12511098679169</v>
       </c>
       <c r="E17">
-        <v>7.278969372314615</v>
+        <v>36.22367840395617</v>
       </c>
       <c r="F17">
-        <v>43.32873120338082</v>
+        <v>19.28670228497407</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>12.11240591915642</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>17.94131749930048</v>
+        <v>15.30132934549036</v>
       </c>
       <c r="L17">
-        <v>6.473549368876165</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>12.96674797218918</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>34.09771385883516</v>
+        <v>14.43813967010378</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,40 +1077,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.76483848308179</v>
+        <v>16.59797976508721</v>
       </c>
       <c r="C18">
-        <v>11.92380419278262</v>
+        <v>10.58394833709735</v>
       </c>
       <c r="D18">
-        <v>5.448875971907435</v>
+        <v>5.090093017688448</v>
       </c>
       <c r="E18">
-        <v>7.283205765879219</v>
+        <v>35.7203488704458</v>
       </c>
       <c r="F18">
-        <v>42.91899038994757</v>
+        <v>19.15940343725067</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>12.13868352901524</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>17.70550003186617</v>
+        <v>15.13394884629621</v>
       </c>
       <c r="L18">
-        <v>6.449471242374378</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>12.79656149683603</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>33.81219756170004</v>
+        <v>14.40041618432085</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,40 +1118,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.66306541591855</v>
+        <v>16.53038098110244</v>
       </c>
       <c r="C19">
-        <v>11.88339903181286</v>
+        <v>10.54355287864403</v>
       </c>
       <c r="D19">
-        <v>5.452921619614718</v>
+        <v>5.078174696980145</v>
       </c>
       <c r="E19">
-        <v>7.284668287275775</v>
+        <v>35.54902258646083</v>
       </c>
       <c r="F19">
-        <v>42.78019421212063</v>
+        <v>19.11660428206552</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>12.14789965520708</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>17.62516597062188</v>
+        <v>15.07689806891445</v>
       </c>
       <c r="L19">
-        <v>6.441375552289267</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>12.75448331640511</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>33.71560777716732</v>
+        <v>14.38801505493689</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,40 +1159,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.118645603677</v>
+        <v>16.8326395093881</v>
       </c>
       <c r="C20">
-        <v>12.06451123102458</v>
+        <v>10.72431492728738</v>
       </c>
       <c r="D20">
-        <v>5.434771380174476</v>
+        <v>5.131562500189804</v>
       </c>
       <c r="E20">
-        <v>7.278198785362822</v>
+        <v>36.31640557838087</v>
       </c>
       <c r="F20">
-        <v>43.40453399959764</v>
+        <v>19.31040586747721</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>12.10769603959465</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>17.98473030885493</v>
+        <v>15.33212795257159</v>
       </c>
       <c r="L20">
-        <v>6.478032752279364</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>12.99807892274155</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>34.15059508676201</v>
+        <v>14.44529921451446</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,40 +1200,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.6079899877985</v>
+        <v>17.81435495716704</v>
       </c>
       <c r="C21">
-        <v>12.66075533088728</v>
+        <v>11.31385134915034</v>
       </c>
       <c r="D21">
-        <v>5.374793528287855</v>
+        <v>5.306547314451826</v>
       </c>
       <c r="E21">
-        <v>7.258485065557117</v>
+        <v>38.83361644406315</v>
       </c>
       <c r="F21">
-        <v>45.49773147144919</v>
+        <v>19.98254405978601</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>11.99604595098442</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>19.15945337816273</v>
+        <v>16.16339034317017</v>
       </c>
       <c r="L21">
-        <v>6.605212020496539</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>13.84591789132215</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>35.61783705689742</v>
+        <v>14.66441922171839</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,40 +1241,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.55163381797356</v>
+        <v>18.43098986305561</v>
       </c>
       <c r="C22">
-        <v>13.0416524085275</v>
+        <v>11.68601399055005</v>
       </c>
       <c r="D22">
-        <v>5.336387462149785</v>
+        <v>5.417540162881334</v>
       </c>
       <c r="E22">
-        <v>7.247190773185919</v>
+        <v>40.43578831932443</v>
       </c>
       <c r="F22">
-        <v>46.86270055164609</v>
+        <v>20.43747142702947</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>11.94205627103793</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>19.90326838668266</v>
+        <v>16.68719453067886</v>
       </c>
       <c r="L22">
-        <v>6.691413849728646</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>14.38278066882039</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>36.58134412461201</v>
+        <v>14.82843799045463</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,40 +1282,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.05063942679844</v>
+        <v>18.10414833494192</v>
       </c>
       <c r="C23">
-        <v>12.83913790652007</v>
+        <v>11.48857543426081</v>
       </c>
       <c r="D23">
-        <v>5.35680969948367</v>
+        <v>5.358615382633924</v>
       </c>
       <c r="E23">
-        <v>7.253067661505058</v>
+        <v>39.5844372001298</v>
       </c>
       <c r="F23">
-        <v>46.13443637368786</v>
+        <v>20.19323470954103</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>11.96903409273219</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>19.50840722019849</v>
+        <v>16.40940337131887</v>
       </c>
       <c r="L23">
-        <v>6.645117917276861</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>14.09778096281355</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>36.06665384136465</v>
+        <v>14.73893381639588</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,40 +1323,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.09378543675292</v>
+        <v>16.81616875425621</v>
       </c>
       <c r="C24">
-        <v>12.05461236556803</v>
+        <v>10.71445557468309</v>
       </c>
       <c r="D24">
-        <v>5.43576442334572</v>
+        <v>5.128646951340649</v>
       </c>
       <c r="E24">
-        <v>7.278546644654857</v>
+        <v>36.2745005672822</v>
       </c>
       <c r="F24">
-        <v>43.3702653198254</v>
+        <v>19.2996841849749</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>12.10981942459504</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>17.96511251915564</v>
+        <v>15.31821099610353</v>
       </c>
       <c r="L24">
-        <v>6.476004812767032</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>12.9839207797945</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>34.12668641185537</v>
+        <v>14.44205561556713</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,40 +1364,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.84864434009148</v>
+        <v>15.31818677321208</v>
       </c>
       <c r="C25">
-        <v>11.16854769667529</v>
+        <v>9.822316102905154</v>
       </c>
       <c r="D25">
-        <v>5.524073718446753</v>
+        <v>4.866783494890615</v>
       </c>
       <c r="E25">
-        <v>7.31234732139032</v>
+        <v>32.50371760334177</v>
       </c>
       <c r="F25">
-        <v>40.37471187069286</v>
+        <v>18.40308952641314</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>12.33357942279313</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>16.19183287630834</v>
+        <v>14.05701305694461</v>
       </c>
       <c r="L25">
-        <v>6.306277812987068</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>12.07193940690745</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>32.05256048984783</v>
+        <v>14.20497179684659</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_44/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_44/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.12035241250455</v>
+        <v>8.936014356752429</v>
       </c>
       <c r="C2">
-        <v>9.11585367667943</v>
+        <v>5.822997384038965</v>
       </c>
       <c r="D2">
-        <v>4.662929104456806</v>
+        <v>4.69325500866014</v>
       </c>
       <c r="E2">
-        <v>29.53879786918715</v>
+        <v>16.47667668692905</v>
       </c>
       <c r="F2">
-        <v>17.80078155533923</v>
+        <v>23.15625613623854</v>
       </c>
       <c r="I2">
-        <v>12.55053810938387</v>
+        <v>19.6611083466157</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>13.05582271223944</v>
+        <v>8.689240716366754</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>14.09471163310054</v>
+        <v>20.72629569191747</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,28 +462,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.24897914942749</v>
+        <v>8.563451797084182</v>
       </c>
       <c r="C3">
-        <v>8.606258930415105</v>
+        <v>5.567647760220374</v>
       </c>
       <c r="D3">
-        <v>4.518399001635085</v>
+        <v>4.638264397795142</v>
       </c>
       <c r="E3">
-        <v>27.40475874501704</v>
+        <v>15.5442172489596</v>
       </c>
       <c r="F3">
-        <v>17.42858056030524</v>
+        <v>23.18289448938683</v>
       </c>
       <c r="I3">
-        <v>12.7258404637795</v>
+        <v>19.76091451388504</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>12.3323834985241</v>
+        <v>8.418152913604596</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>14.05629736345585</v>
+        <v>20.80098525690389</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,28 +503,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.68453588634342</v>
+        <v>8.327146427361857</v>
       </c>
       <c r="C4">
-        <v>8.278322811109232</v>
+        <v>5.403620833193558</v>
       </c>
       <c r="D4">
-        <v>4.42671571347577</v>
+        <v>4.603726679817479</v>
       </c>
       <c r="E4">
-        <v>26.03082160910766</v>
+        <v>14.94693422056101</v>
       </c>
       <c r="F4">
-        <v>17.21767565573754</v>
+        <v>23.2065615617079</v>
       </c>
       <c r="I4">
-        <v>12.84614180910486</v>
+        <v>19.82664799666068</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>11.8663096275465</v>
+        <v>8.248216453697474</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -536,7 +536,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>14.04931470589847</v>
+        <v>20.85225484366275</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,28 +544,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.44713614679254</v>
+        <v>8.229090050531916</v>
       </c>
       <c r="C5">
-        <v>8.140943553494928</v>
+        <v>5.335010840441037</v>
       </c>
       <c r="D5">
-        <v>4.388648962817075</v>
+        <v>4.589465623672367</v>
       </c>
       <c r="E5">
-        <v>25.4546377705318</v>
+        <v>14.69758333982938</v>
       </c>
       <c r="F5">
-        <v>17.1361318336664</v>
+        <v>23.21803850255862</v>
       </c>
       <c r="I5">
-        <v>12.89817481784009</v>
+        <v>19.85455235888399</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>11.6709431028015</v>
+        <v>8.178193129835048</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -577,7 +577,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>14.05044725619006</v>
+        <v>20.87450258663551</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,28 +585,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.40727075881278</v>
+        <v>8.212705956464319</v>
       </c>
       <c r="C6">
-        <v>8.117907264369354</v>
+        <v>5.323513157659664</v>
       </c>
       <c r="D6">
-        <v>4.382286499416408</v>
+        <v>4.587086543558179</v>
       </c>
       <c r="E6">
-        <v>25.35797053668562</v>
+        <v>14.65582819829867</v>
       </c>
       <c r="F6">
-        <v>17.12285614810168</v>
+        <v>23.22005471693897</v>
       </c>
       <c r="I6">
-        <v>12.9069917407557</v>
+        <v>19.85925328745864</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>11.63817651673499</v>
+        <v>8.166522331598378</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -618,7 +618,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>14.0508697751559</v>
+        <v>20.87827848372863</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,28 +626,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.68136410270244</v>
+        <v>8.32583093508627</v>
       </c>
       <c r="C7">
-        <v>8.276485155918428</v>
+        <v>5.402702615761186</v>
       </c>
       <c r="D7">
-        <v>4.426205138642855</v>
+        <v>4.603535095592432</v>
       </c>
       <c r="E7">
-        <v>26.02311733993986</v>
+        <v>14.9435950957804</v>
       </c>
       <c r="F7">
-        <v>17.21655815867555</v>
+        <v>23.20670893313946</v>
       </c>
       <c r="I7">
-        <v>12.84683158203545</v>
+        <v>19.82701980295097</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>11.86369676278738</v>
+        <v>8.247275080429471</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>14.04931413496062</v>
+        <v>20.85254940557091</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,28 +667,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.8260112270509</v>
+        <v>8.809199737762482</v>
       </c>
       <c r="C8">
-        <v>8.943286856241302</v>
+        <v>5.736485147693871</v>
       </c>
       <c r="D8">
-        <v>4.613725238687731</v>
+        <v>4.674459349130019</v>
       </c>
       <c r="E8">
-        <v>28.81600522253774</v>
+        <v>16.16044781658177</v>
       </c>
       <c r="F8">
-        <v>17.66877419761618</v>
+        <v>23.1639203540082</v>
       </c>
       <c r="I8">
-        <v>12.60824383057527</v>
+        <v>19.69459622013099</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>12.81095389694663</v>
+        <v>8.596553438774071</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -700,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>14.07790247810939</v>
+        <v>20.75092263419609</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,28 +708,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.83744580590103</v>
+        <v>9.691932423644447</v>
       </c>
       <c r="C9">
-        <v>10.13052621696657</v>
+        <v>6.331634914449287</v>
       </c>
       <c r="D9">
-        <v>4.956769522813525</v>
+        <v>4.807074921354007</v>
       </c>
       <c r="E9">
-        <v>33.80218767844861</v>
+        <v>18.41992924820928</v>
       </c>
       <c r="F9">
-        <v>18.69612417016285</v>
+        <v>23.13824139689659</v>
       </c>
       <c r="I9">
-        <v>12.24948536151263</v>
+        <v>19.47033349738275</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>14.49313600949234</v>
+        <v>9.307098448307569</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -741,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>14.27435149980524</v>
+        <v>20.59479282944623</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,28 +749,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.17423014673452</v>
+        <v>10.29481393372993</v>
       </c>
       <c r="C10">
-        <v>10.92902733310058</v>
+        <v>6.730563384020356</v>
       </c>
       <c r="D10">
-        <v>5.192186168960322</v>
+        <v>4.90013827490332</v>
       </c>
       <c r="E10">
-        <v>37.18785137141797</v>
+        <v>20.05566072055848</v>
       </c>
       <c r="F10">
-        <v>19.53692164341026</v>
+        <v>23.15510123277652</v>
       </c>
       <c r="I10">
-        <v>12.06546455777083</v>
+        <v>19.32729116686409</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>15.62098014829978</v>
+        <v>9.874003388772906</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -782,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>14.51576481010676</v>
+        <v>20.50670758719899</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,28 +790,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.75220206536927</v>
+        <v>10.55818291148874</v>
       </c>
       <c r="C11">
-        <v>11.27641883333609</v>
+        <v>6.903392463923437</v>
       </c>
       <c r="D11">
-        <v>5.295403033643165</v>
+        <v>4.941440531158955</v>
       </c>
       <c r="E11">
-        <v>38.67306467072071</v>
+        <v>20.75765700656296</v>
       </c>
       <c r="F11">
-        <v>19.93807894341737</v>
+        <v>23.17055239400427</v>
       </c>
       <c r="I11">
-        <v>12.00220682401464</v>
+        <v>19.26696396349294</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>16.11066345839571</v>
+        <v>10.11979037569396</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>14.64902703641116</v>
+        <v>20.47247939673902</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,28 +831,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.96677852231819</v>
+        <v>10.65628235904914</v>
       </c>
       <c r="C12">
-        <v>11.40571225738686</v>
+        <v>6.967573599696521</v>
       </c>
       <c r="D12">
-        <v>5.333912150628751</v>
+        <v>4.956925200635891</v>
       </c>
       <c r="E12">
-        <v>39.22806530073888</v>
+        <v>21.01746595111134</v>
       </c>
       <c r="F12">
-        <v>20.09267173705432</v>
+        <v>23.17752211719501</v>
       </c>
       <c r="I12">
-        <v>11.98148331394175</v>
+        <v>19.24480437313425</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>16.29275212227334</v>
+        <v>10.21109032953144</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>14.7030467584411</v>
+        <v>20.46036303645507</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,28 +872,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.92075559620687</v>
+        <v>10.63522846765241</v>
       </c>
       <c r="C13">
-        <v>11.3779664821482</v>
+        <v>6.953807638903739</v>
       </c>
       <c r="D13">
-        <v>5.325644465751195</v>
+        <v>4.953597330320384</v>
       </c>
       <c r="E13">
-        <v>39.10885762076435</v>
+        <v>20.96177874503628</v>
       </c>
       <c r="F13">
-        <v>20.05925801502481</v>
+        <v>23.17597132618061</v>
       </c>
       <c r="I13">
-        <v>11.98579797881231</v>
+        <v>19.24954632428742</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>16.25368437854538</v>
+        <v>10.19150664301203</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>14.69125158133818</v>
+        <v>20.46293484758019</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,28 +913,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.76994107143624</v>
+        <v>10.56628668345242</v>
       </c>
       <c r="C14">
-        <v>11.28710093294377</v>
+        <v>6.908698160177014</v>
       </c>
       <c r="D14">
-        <v>5.298582866738682</v>
+        <v>4.94271762232085</v>
       </c>
       <c r="E14">
-        <v>38.71887060897897</v>
+        <v>20.77915214270361</v>
       </c>
       <c r="F14">
-        <v>19.95074359107814</v>
+        <v>23.17110338304263</v>
       </c>
       <c r="I14">
-        <v>12.00043540868345</v>
+        <v>19.26512713510418</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>16.12571087315478</v>
+        <v>10.12733741125121</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>14.65339895538306</v>
+        <v>20.47146561132632</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,28 +954,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.67700573851812</v>
+        <v>10.52384340062432</v>
       </c>
       <c r="C15">
-        <v>11.23115018292594</v>
+        <v>6.880901905912036</v>
       </c>
       <c r="D15">
-        <v>5.281931190906261</v>
+        <v>4.936033017639508</v>
       </c>
       <c r="E15">
-        <v>38.47904156149558</v>
+        <v>20.66650483313115</v>
       </c>
       <c r="F15">
-        <v>19.88462488969287</v>
+        <v>23.16826728518259</v>
       </c>
       <c r="I15">
-        <v>12.00983093847229</v>
+        <v>19.2747601278487</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>16.04688867581182</v>
+        <v>10.08779993137688</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -987,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>14.63068166933364</v>
+        <v>20.47680115365669</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,28 +995,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.13585551819592</v>
+        <v>10.27737711967746</v>
       </c>
       <c r="C16">
-        <v>10.90600728613982</v>
+        <v>6.719092630259466</v>
       </c>
       <c r="D16">
-        <v>5.185360989923908</v>
+        <v>4.897417681597545</v>
       </c>
       <c r="E16">
-        <v>37.08972376444996</v>
+        <v>20.00893915501733</v>
       </c>
       <c r="F16">
-        <v>19.51108048910093</v>
+        <v>23.15424805405308</v>
       </c>
       <c r="I16">
-        <v>12.07003448583436</v>
+        <v>19.33132938920165</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>15.58850903657649</v>
+        <v>9.857694075128046</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1028,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>14.5075434741939</v>
+        <v>20.50906247384043</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,28 +1036,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.79618766354633</v>
+        <v>10.1233388617642</v>
       </c>
       <c r="C17">
-        <v>10.70249636403785</v>
+        <v>6.617596396422412</v>
       </c>
       <c r="D17">
-        <v>5.12511098679169</v>
+        <v>4.873458784065114</v>
       </c>
       <c r="E17">
-        <v>36.22367840395617</v>
+        <v>19.59478306624201</v>
       </c>
       <c r="F17">
-        <v>19.28670228497407</v>
+        <v>23.14764096899648</v>
       </c>
       <c r="I17">
-        <v>12.11240591915642</v>
+        <v>19.36724976252163</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>15.30132934549036</v>
+        <v>9.713406042121683</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>14.43813967010378</v>
+        <v>20.53035371951623</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,28 +1077,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.59797976508721</v>
+        <v>10.03371892567429</v>
       </c>
       <c r="C18">
-        <v>10.58394833709735</v>
+        <v>6.558405743543094</v>
       </c>
       <c r="D18">
-        <v>5.090093017688448</v>
+        <v>4.859581461735556</v>
       </c>
       <c r="E18">
-        <v>35.7203488704458</v>
+        <v>19.35260624838613</v>
       </c>
       <c r="F18">
-        <v>19.15940343725067</v>
+        <v>23.14457328220677</v>
       </c>
       <c r="I18">
-        <v>12.13868352901524</v>
+        <v>19.38835651086751</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>15.13394884629621</v>
+        <v>9.629278020698436</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>14.40041618432085</v>
+        <v>20.5431494936495</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,28 +1118,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.53038098110244</v>
+        <v>10.00320198771021</v>
       </c>
       <c r="C19">
-        <v>10.54355287864403</v>
+        <v>6.538225969186485</v>
       </c>
       <c r="D19">
-        <v>5.078174696980145</v>
+        <v>4.854866434248542</v>
       </c>
       <c r="E19">
-        <v>35.54902258646083</v>
+        <v>19.26992730444493</v>
       </c>
       <c r="F19">
-        <v>19.11660428206552</v>
+        <v>23.14366041652257</v>
       </c>
       <c r="I19">
-        <v>12.14789965520708</v>
+        <v>19.39557945816314</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>15.07689806891445</v>
+        <v>9.60059951377278</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>14.38801505493689</v>
+        <v>20.54757616313726</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,28 +1159,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.8326395093881</v>
+        <v>10.1398427091839</v>
       </c>
       <c r="C20">
-        <v>10.72431492728738</v>
+        <v>6.628485129812963</v>
       </c>
       <c r="D20">
-        <v>5.131562500189804</v>
+        <v>4.876019320084171</v>
       </c>
       <c r="E20">
-        <v>36.31640557838087</v>
+        <v>19.639280831394</v>
       </c>
       <c r="F20">
-        <v>19.31040586747721</v>
+        <v>23.14826848775436</v>
       </c>
       <c r="I20">
-        <v>12.10769603959465</v>
+        <v>19.3633797662319</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>15.33212795257159</v>
+        <v>9.728883728215871</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>14.44529921451446</v>
+        <v>20.52803031014985</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,28 +1200,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.81435495716704</v>
+        <v>10.58658135401009</v>
       </c>
       <c r="C21">
-        <v>11.31385134915034</v>
+        <v>6.921982410149992</v>
       </c>
       <c r="D21">
-        <v>5.306547314451826</v>
+        <v>4.945917534360897</v>
       </c>
       <c r="E21">
-        <v>38.83361644406315</v>
+        <v>20.83295717116981</v>
       </c>
       <c r="F21">
-        <v>19.98254405978601</v>
+        <v>23.17250286328947</v>
       </c>
       <c r="I21">
-        <v>11.99604595098442</v>
+        <v>19.26053205874475</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>16.16339034317017</v>
+        <v>10.14623386586777</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>14.66441922171839</v>
+        <v>20.46893694436724</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,28 +1241,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.43098986305561</v>
+        <v>10.869010066726</v>
       </c>
       <c r="C22">
-        <v>11.68601399055005</v>
+        <v>7.106416010773398</v>
       </c>
       <c r="D22">
-        <v>5.417540162881334</v>
+        <v>4.990690015025927</v>
       </c>
       <c r="E22">
-        <v>40.43578831932443</v>
+        <v>21.57800907555514</v>
       </c>
       <c r="F22">
-        <v>20.43747142702947</v>
+        <v>23.19486103952381</v>
       </c>
       <c r="I22">
-        <v>11.94205627103793</v>
+        <v>19.19730930848574</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>16.68719453067886</v>
+        <v>10.40864276766983</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>14.82843799045463</v>
+        <v>20.43524413119098</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,28 +1282,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.10414833494192</v>
+        <v>10.71916524691594</v>
       </c>
       <c r="C23">
-        <v>11.48857543426081</v>
+        <v>7.008662297335971</v>
       </c>
       <c r="D23">
-        <v>5.358615382633924</v>
+        <v>4.966879640748997</v>
       </c>
       <c r="E23">
-        <v>39.5844372001298</v>
+        <v>21.18356025048125</v>
       </c>
       <c r="F23">
-        <v>20.19323470954103</v>
+        <v>23.18233194334234</v>
       </c>
       <c r="I23">
-        <v>11.96903409273219</v>
+        <v>19.23068603544636</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>16.40940337131887</v>
+        <v>10.26954735900873</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>14.73893381639588</v>
+        <v>20.45277410366901</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,28 +1323,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.81616875425621</v>
+        <v>10.13238462021952</v>
       </c>
       <c r="C24">
-        <v>10.71445557468309</v>
+        <v>6.6235649454429</v>
       </c>
       <c r="D24">
-        <v>5.128646951340649</v>
+        <v>4.874862022114713</v>
       </c>
       <c r="E24">
-        <v>36.2745005672822</v>
+        <v>19.61917608125279</v>
       </c>
       <c r="F24">
-        <v>19.2996841849749</v>
+        <v>23.14798251000806</v>
       </c>
       <c r="I24">
-        <v>12.10981942459504</v>
+        <v>19.36512797238957</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>15.31821099610353</v>
+        <v>9.721889923330957</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>14.44205561556713</v>
+        <v>20.52907899455676</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,28 +1364,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.31818677321208</v>
+        <v>9.460773792683252</v>
       </c>
       <c r="C25">
-        <v>9.822316102905154</v>
+        <v>6.177232378861898</v>
       </c>
       <c r="D25">
-        <v>4.866783494890615</v>
+        <v>4.771936155038662</v>
       </c>
       <c r="E25">
-        <v>32.50371760334177</v>
+        <v>17.77999807161037</v>
       </c>
       <c r="F25">
-        <v>18.40308952641314</v>
+        <v>23.13892608037334</v>
       </c>
       <c r="I25">
-        <v>12.33357942279313</v>
+        <v>19.5271973436045</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>14.05701305694461</v>
+        <v>9.08786288563768</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>14.20497179684659</v>
+        <v>20.63237658057407</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_44/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_44/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>8.936014356752429</v>
+        <v>14.12035241250458</v>
       </c>
       <c r="C2">
-        <v>5.822997384038965</v>
+        <v>9.115853676679404</v>
       </c>
       <c r="D2">
-        <v>4.69325500866014</v>
+        <v>4.662929104456807</v>
       </c>
       <c r="E2">
-        <v>16.47667668692905</v>
+        <v>29.53879786918715</v>
       </c>
       <c r="F2">
-        <v>23.15625613623854</v>
+        <v>17.80078155533915</v>
       </c>
       <c r="I2">
-        <v>19.6611083466157</v>
+        <v>12.55053810938373</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>8.689240716366754</v>
+        <v>13.05582271223943</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>20.72629569191747</v>
+        <v>14.09471163310047</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,28 +462,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>8.563451797084182</v>
+        <v>13.24897914942749</v>
       </c>
       <c r="C3">
-        <v>5.567647760220374</v>
+        <v>8.606258930415049</v>
       </c>
       <c r="D3">
-        <v>4.638264397795142</v>
+        <v>4.518399001635085</v>
       </c>
       <c r="E3">
-        <v>15.5442172489596</v>
+        <v>27.40475874501709</v>
       </c>
       <c r="F3">
-        <v>23.18289448938683</v>
+        <v>17.42858056030524</v>
       </c>
       <c r="I3">
-        <v>19.76091451388504</v>
+        <v>12.72584046377949</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>8.418152913604596</v>
+        <v>12.33238349852406</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>20.80098525690389</v>
+        <v>14.05629736345585</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,28 +503,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8.327146427361857</v>
+        <v>12.68453588634343</v>
       </c>
       <c r="C4">
-        <v>5.403620833193558</v>
+        <v>8.278322811109231</v>
       </c>
       <c r="D4">
-        <v>4.603726679817479</v>
+        <v>4.426715713475781</v>
       </c>
       <c r="E4">
-        <v>14.94693422056101</v>
+        <v>26.03082160910765</v>
       </c>
       <c r="F4">
-        <v>23.2065615617079</v>
+        <v>17.2176756557375</v>
       </c>
       <c r="I4">
-        <v>19.82664799666068</v>
+        <v>12.84614180910483</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>8.248216453697474</v>
+        <v>11.8663096275465</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -536,7 +536,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>20.85225484366275</v>
+        <v>14.04931470589841</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,28 +544,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8.229090050531916</v>
+        <v>12.44713614679258</v>
       </c>
       <c r="C5">
-        <v>5.335010840441037</v>
+        <v>8.140943553494928</v>
       </c>
       <c r="D5">
-        <v>4.589465623672367</v>
+        <v>4.388648962817126</v>
       </c>
       <c r="E5">
-        <v>14.69758333982938</v>
+        <v>25.45463777053178</v>
       </c>
       <c r="F5">
-        <v>23.21803850255862</v>
+        <v>17.13613183366646</v>
       </c>
       <c r="I5">
-        <v>19.85455235888399</v>
+        <v>12.89817481784018</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>8.178193129835048</v>
+        <v>11.67094310280151</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -577,7 +577,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>20.87450258663551</v>
+        <v>14.05044725619018</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,28 +585,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8.212705956464319</v>
+        <v>12.40727075881278</v>
       </c>
       <c r="C6">
-        <v>5.323513157659664</v>
+        <v>8.117907264369492</v>
       </c>
       <c r="D6">
-        <v>4.587086543558179</v>
+        <v>4.382286499416456</v>
       </c>
       <c r="E6">
-        <v>14.65582819829867</v>
+        <v>25.35797053668554</v>
       </c>
       <c r="F6">
-        <v>23.22005471693897</v>
+        <v>17.12285614810169</v>
       </c>
       <c r="I6">
-        <v>19.85925328745864</v>
+        <v>12.9069917407558</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>8.166522331598378</v>
+        <v>11.63817651673506</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -618,7 +618,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>20.87827848372863</v>
+        <v>14.05086977515591</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,28 +626,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.32583093508627</v>
+        <v>12.68136410270254</v>
       </c>
       <c r="C7">
-        <v>5.402702615761186</v>
+        <v>8.276485155918364</v>
       </c>
       <c r="D7">
-        <v>4.603535095592432</v>
+        <v>4.42620513864285</v>
       </c>
       <c r="E7">
-        <v>14.9435950957804</v>
+        <v>26.02311733993996</v>
       </c>
       <c r="F7">
-        <v>23.20670893313946</v>
+        <v>17.21655815867551</v>
       </c>
       <c r="I7">
-        <v>19.82701980295097</v>
+        <v>12.84683158203539</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>8.247275080429471</v>
+        <v>11.8636967627874</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>20.85254940557091</v>
+        <v>14.04931413496058</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,28 +667,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8.809199737762482</v>
+        <v>13.8260112270509</v>
       </c>
       <c r="C8">
-        <v>5.736485147693871</v>
+        <v>8.943286856241199</v>
       </c>
       <c r="D8">
-        <v>4.674459349130019</v>
+        <v>4.61372523868789</v>
       </c>
       <c r="E8">
-        <v>16.16044781658177</v>
+        <v>28.81600522253785</v>
       </c>
       <c r="F8">
-        <v>23.1639203540082</v>
+        <v>17.66877419761617</v>
       </c>
       <c r="I8">
-        <v>19.69459622013099</v>
+        <v>12.60824383057532</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>8.596553438774071</v>
+        <v>12.81095389694658</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -700,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>20.75092263419609</v>
+        <v>14.07790247810946</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,28 +708,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9.691932423644447</v>
+        <v>15.83744580590103</v>
       </c>
       <c r="C9">
-        <v>6.331634914449287</v>
+        <v>10.13052621696645</v>
       </c>
       <c r="D9">
-        <v>4.807074921354007</v>
+        <v>4.956769522813479</v>
       </c>
       <c r="E9">
-        <v>18.41992924820928</v>
+        <v>33.80218767844861</v>
       </c>
       <c r="F9">
-        <v>23.13824139689659</v>
+        <v>18.69612417016289</v>
       </c>
       <c r="I9">
-        <v>19.47033349738275</v>
+        <v>12.24948536151263</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>9.307098448307569</v>
+        <v>14.49313600949229</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -741,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>20.59479282944623</v>
+        <v>14.27435149980526</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,28 +749,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>10.29481393372993</v>
+        <v>17.17423014673452</v>
       </c>
       <c r="C10">
-        <v>6.730563384020356</v>
+        <v>10.92902733310036</v>
       </c>
       <c r="D10">
-        <v>4.90013827490332</v>
+        <v>5.192186168960358</v>
       </c>
       <c r="E10">
-        <v>20.05566072055848</v>
+        <v>37.18785137141801</v>
       </c>
       <c r="F10">
-        <v>23.15510123277652</v>
+        <v>19.53692164341024</v>
       </c>
       <c r="I10">
-        <v>19.32729116686409</v>
+        <v>12.06546455777073</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>9.874003388772906</v>
+        <v>15.62098014829977</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -782,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>20.50670758719899</v>
+        <v>14.51576481010674</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,28 +790,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>10.55818291148874</v>
+        <v>17.75220206536927</v>
       </c>
       <c r="C11">
-        <v>6.903392463923437</v>
+        <v>11.27641883333599</v>
       </c>
       <c r="D11">
-        <v>4.941440531158955</v>
+        <v>5.295403033643158</v>
       </c>
       <c r="E11">
-        <v>20.75765700656296</v>
+        <v>38.67306467072071</v>
       </c>
       <c r="F11">
-        <v>23.17055239400427</v>
+        <v>19.93807894341742</v>
       </c>
       <c r="I11">
-        <v>19.26696396349294</v>
+        <v>12.00220682401467</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>10.11979037569396</v>
+        <v>16.11066345839569</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>20.47247939673902</v>
+        <v>14.6490270364112</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,28 +831,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>10.65628235904914</v>
+        <v>17.9667785223182</v>
       </c>
       <c r="C12">
-        <v>6.967573599696521</v>
+        <v>11.40571225738674</v>
       </c>
       <c r="D12">
-        <v>4.956925200635891</v>
+        <v>5.333912150628942</v>
       </c>
       <c r="E12">
-        <v>21.01746595111134</v>
+        <v>39.22806530073891</v>
       </c>
       <c r="F12">
-        <v>23.17752211719501</v>
+        <v>20.09267173705435</v>
       </c>
       <c r="I12">
-        <v>19.24480437313425</v>
+        <v>11.98148331394177</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>10.21109032953144</v>
+        <v>16.29275212227333</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>20.46036303645507</v>
+        <v>14.70304675844115</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,28 +872,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>10.63522846765241</v>
+        <v>17.92075559620685</v>
       </c>
       <c r="C13">
-        <v>6.953807638903739</v>
+        <v>11.37796648214794</v>
       </c>
       <c r="D13">
-        <v>4.953597330320384</v>
+        <v>5.325644465751369</v>
       </c>
       <c r="E13">
-        <v>20.96177874503628</v>
+        <v>39.10885762076429</v>
       </c>
       <c r="F13">
-        <v>23.17597132618061</v>
+        <v>20.05925801502483</v>
       </c>
       <c r="I13">
-        <v>19.24954632428742</v>
+        <v>11.9857979788123</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>10.19150664301203</v>
+        <v>16.25368437854531</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>20.46293484758019</v>
+        <v>14.69125158133825</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,28 +913,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>10.56628668345242</v>
+        <v>17.76994107143627</v>
       </c>
       <c r="C14">
-        <v>6.908698160177014</v>
+        <v>11.28710093294389</v>
       </c>
       <c r="D14">
-        <v>4.94271762232085</v>
+        <v>5.298582866738659</v>
       </c>
       <c r="E14">
-        <v>20.77915214270361</v>
+        <v>38.71887060897895</v>
       </c>
       <c r="F14">
-        <v>23.17110338304263</v>
+        <v>19.95074359107821</v>
       </c>
       <c r="I14">
-        <v>19.26512713510418</v>
+        <v>12.0004354086835</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>10.12733741125121</v>
+        <v>16.12571087315481</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>20.47146561132632</v>
+        <v>14.65339895538307</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,28 +954,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>10.52384340062432</v>
+        <v>17.67700573851818</v>
       </c>
       <c r="C15">
-        <v>6.880901905912036</v>
+        <v>11.2311501829259</v>
       </c>
       <c r="D15">
-        <v>4.936033017639508</v>
+        <v>5.281931190906355</v>
       </c>
       <c r="E15">
-        <v>20.66650483313115</v>
+        <v>38.47904156149562</v>
       </c>
       <c r="F15">
-        <v>23.16826728518259</v>
+        <v>19.88462488969283</v>
       </c>
       <c r="I15">
-        <v>19.2747601278487</v>
+        <v>12.00983093847227</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>10.08779993137688</v>
+        <v>16.04688867581184</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -987,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>20.47680115365669</v>
+        <v>14.63068166933359</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,28 +995,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>10.27737711967746</v>
+        <v>17.13585551819584</v>
       </c>
       <c r="C16">
-        <v>6.719092630259466</v>
+        <v>10.90600728613994</v>
       </c>
       <c r="D16">
-        <v>4.897417681597545</v>
+        <v>5.185360989924003</v>
       </c>
       <c r="E16">
-        <v>20.00893915501733</v>
+        <v>37.08972376444991</v>
       </c>
       <c r="F16">
-        <v>23.15424805405308</v>
+        <v>19.51108048910099</v>
       </c>
       <c r="I16">
-        <v>19.33132938920165</v>
+        <v>12.0700344858345</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>9.857694075128046</v>
+        <v>15.58850903657649</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1028,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>20.50906247384043</v>
+        <v>14.50754347419398</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,28 +1036,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>10.1233388617642</v>
+        <v>16.79618766354636</v>
       </c>
       <c r="C17">
-        <v>6.617596396422412</v>
+        <v>10.70249636403789</v>
       </c>
       <c r="D17">
-        <v>4.873458784065114</v>
+        <v>5.125110986791588</v>
       </c>
       <c r="E17">
-        <v>19.59478306624201</v>
+        <v>36.22367840395613</v>
       </c>
       <c r="F17">
-        <v>23.14764096899648</v>
+        <v>19.28670228497411</v>
       </c>
       <c r="I17">
-        <v>19.36724976252163</v>
+        <v>12.11240591915647</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>9.713406042121683</v>
+        <v>15.30132934549037</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>20.53035371951623</v>
+        <v>14.43813967010379</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,28 +1077,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>10.03371892567429</v>
+        <v>16.59797976508716</v>
       </c>
       <c r="C18">
-        <v>6.558405743543094</v>
+        <v>10.58394833709739</v>
       </c>
       <c r="D18">
-        <v>4.859581461735556</v>
+        <v>5.090093017688505</v>
       </c>
       <c r="E18">
-        <v>19.35260624838613</v>
+        <v>35.72034887044576</v>
       </c>
       <c r="F18">
-        <v>23.14457328220677</v>
+        <v>19.15940343725069</v>
       </c>
       <c r="I18">
-        <v>19.38835651086751</v>
+        <v>12.13868352901537</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>9.629278020698436</v>
+        <v>15.13394884629617</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>20.5431494936495</v>
+        <v>14.40041618432089</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,28 +1118,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>10.00320198771021</v>
+        <v>16.53038098110248</v>
       </c>
       <c r="C19">
-        <v>6.538225969186485</v>
+        <v>10.54355287864398</v>
       </c>
       <c r="D19">
-        <v>4.854866434248542</v>
+        <v>5.078174696980127</v>
       </c>
       <c r="E19">
-        <v>19.26992730444493</v>
+        <v>35.54902258646088</v>
       </c>
       <c r="F19">
-        <v>23.14366041652257</v>
+        <v>19.11660428206543</v>
       </c>
       <c r="I19">
-        <v>19.39557945816314</v>
+        <v>12.14789965520696</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>9.60059951377278</v>
+        <v>15.07689806891447</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>20.54757616313726</v>
+        <v>14.3880150549368</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,28 +1159,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>10.1398427091839</v>
+        <v>16.83263950938806</v>
       </c>
       <c r="C20">
-        <v>6.628485129812963</v>
+        <v>10.72431492728734</v>
       </c>
       <c r="D20">
-        <v>4.876019320084171</v>
+        <v>5.131562500189735</v>
       </c>
       <c r="E20">
-        <v>19.639280831394</v>
+        <v>36.31640557838087</v>
       </c>
       <c r="F20">
-        <v>23.14826848775436</v>
+        <v>19.31040586747732</v>
       </c>
       <c r="I20">
-        <v>19.3633797662319</v>
+        <v>12.10769603959479</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>9.728883728215871</v>
+        <v>15.33212795257153</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>20.52803031014985</v>
+        <v>14.44529921451457</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,28 +1200,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>10.58658135401009</v>
+        <v>17.81435495716709</v>
       </c>
       <c r="C21">
-        <v>6.921982410149992</v>
+        <v>11.31385134915025</v>
       </c>
       <c r="D21">
-        <v>4.945917534360897</v>
+        <v>5.306547314451757</v>
       </c>
       <c r="E21">
-        <v>20.83295717116981</v>
+        <v>38.83361644406318</v>
       </c>
       <c r="F21">
-        <v>23.17250286328947</v>
+        <v>19.98254405978604</v>
       </c>
       <c r="I21">
-        <v>19.26053205874475</v>
+        <v>11.99604595098439</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>10.14623386586777</v>
+        <v>16.16339034317022</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>20.46893694436724</v>
+        <v>14.66441922171841</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,28 +1241,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>10.869010066726</v>
+        <v>18.43098986305564</v>
       </c>
       <c r="C22">
-        <v>7.106416010773398</v>
+        <v>11.68601399054992</v>
       </c>
       <c r="D22">
-        <v>4.990690015025927</v>
+        <v>5.417540162881333</v>
       </c>
       <c r="E22">
-        <v>21.57800907555514</v>
+        <v>40.43578831932438</v>
       </c>
       <c r="F22">
-        <v>23.19486103952381</v>
+        <v>20.43747142702948</v>
       </c>
       <c r="I22">
-        <v>19.19730930848574</v>
+        <v>11.94205627103794</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>10.40864276766983</v>
+        <v>16.68719453067884</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>20.43524413119098</v>
+        <v>14.82843799045466</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,28 +1282,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>10.71916524691594</v>
+        <v>18.10414833494199</v>
       </c>
       <c r="C23">
-        <v>7.008662297335971</v>
+        <v>11.48857543426065</v>
       </c>
       <c r="D23">
-        <v>4.966879640748997</v>
+        <v>5.358615382633997</v>
       </c>
       <c r="E23">
-        <v>21.18356025048125</v>
+        <v>39.5844372001299</v>
       </c>
       <c r="F23">
-        <v>23.18233194334234</v>
+        <v>20.19323470954103</v>
       </c>
       <c r="I23">
-        <v>19.23068603544636</v>
+        <v>11.96903409273217</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>10.26954735900873</v>
+        <v>16.40940337131885</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>20.45277410366901</v>
+        <v>14.73893381639592</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,28 +1323,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>10.13238462021952</v>
+        <v>16.81616875425616</v>
       </c>
       <c r="C24">
-        <v>6.6235649454429</v>
+        <v>10.71445557468325</v>
       </c>
       <c r="D24">
-        <v>4.874862022114713</v>
+        <v>5.128646951340526</v>
       </c>
       <c r="E24">
-        <v>19.61917608125279</v>
+        <v>36.27450056728216</v>
       </c>
       <c r="F24">
-        <v>23.14798251000806</v>
+        <v>19.29968418497494</v>
       </c>
       <c r="I24">
-        <v>19.36512797238957</v>
+        <v>12.10981942459508</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>9.721889923330957</v>
+        <v>15.31821099610353</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>20.52907899455676</v>
+        <v>14.44205561556713</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,28 +1364,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>9.460773792683252</v>
+        <v>15.31818677321208</v>
       </c>
       <c r="C25">
-        <v>6.177232378861898</v>
+        <v>9.822316102905052</v>
       </c>
       <c r="D25">
-        <v>4.771936155038662</v>
+        <v>4.86678349489075</v>
       </c>
       <c r="E25">
-        <v>17.77999807161037</v>
+        <v>32.50371760334168</v>
       </c>
       <c r="F25">
-        <v>23.13892608037334</v>
+        <v>18.40308952641311</v>
       </c>
       <c r="I25">
-        <v>19.5271973436045</v>
+        <v>12.33357942279311</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>9.08786288563768</v>
+        <v>14.05701305694456</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>20.63237658057407</v>
+        <v>14.20497179684659</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_44/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_44/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,989 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.12035241250458</v>
+        <v>12.7816126457737</v>
       </c>
       <c r="C2">
-        <v>9.115853676679404</v>
+        <v>8.330755535213511</v>
       </c>
       <c r="D2">
-        <v>4.662929104456807</v>
+        <v>5.607741947155539</v>
       </c>
       <c r="E2">
-        <v>29.53879786918715</v>
+        <v>8.040513597295917</v>
       </c>
       <c r="F2">
-        <v>17.80078155533915</v>
+        <v>20.62175651906969</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>2.996094712479941</v>
       </c>
       <c r="I2">
-        <v>12.55053810938373</v>
+        <v>3.646580959750398</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K2">
-        <v>13.05582271223943</v>
+        <v>17.19749837785911</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>11.19050459105925</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>6.415632870331381</v>
       </c>
       <c r="O2">
-        <v>14.09471163310047</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>9.501576473522418</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>17.26776304099065</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.24897914942749</v>
+        <v>11.96066440566644</v>
       </c>
       <c r="C3">
-        <v>8.606258930415049</v>
+        <v>8.110286561171593</v>
       </c>
       <c r="D3">
-        <v>4.518399001635085</v>
+        <v>5.44421162862359</v>
       </c>
       <c r="E3">
-        <v>27.40475874501709</v>
+        <v>7.895481511170477</v>
       </c>
       <c r="F3">
-        <v>17.42858056030524</v>
+        <v>20.35273910037265</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>3.177978827086773</v>
       </c>
       <c r="I3">
-        <v>12.72584046377949</v>
+        <v>3.797147838042411</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K3">
-        <v>12.33238349852406</v>
+        <v>17.23784945255081</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>10.61428322950114</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.247551896064715</v>
       </c>
       <c r="O3">
-        <v>14.05629736345585</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>9.110712296237127</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>17.23417741912126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.68453588634343</v>
+        <v>11.42545960907438</v>
       </c>
       <c r="C4">
-        <v>8.278322811109231</v>
+        <v>7.971970776734703</v>
       </c>
       <c r="D4">
-        <v>4.426715713475781</v>
+        <v>5.340821505798226</v>
       </c>
       <c r="E4">
-        <v>26.03082160910765</v>
+        <v>7.803401763155053</v>
       </c>
       <c r="F4">
-        <v>17.2176756557375</v>
+        <v>20.19324416928441</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>3.293798834008905</v>
       </c>
       <c r="I4">
-        <v>12.84614180910483</v>
+        <v>3.893715436369876</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K4">
-        <v>11.8663096275465</v>
+        <v>17.26567362753817</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>10.24369851753776</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.142114030990593</v>
       </c>
       <c r="O4">
-        <v>14.04931470589841</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>8.862374197539685</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>17.21862909619487</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.44713614679258</v>
+        <v>11.19728464058607</v>
       </c>
       <c r="C5">
-        <v>8.140943553494928</v>
+        <v>7.918574377524934</v>
       </c>
       <c r="D5">
-        <v>4.388648962817126</v>
+        <v>5.29941491587884</v>
       </c>
       <c r="E5">
-        <v>25.45463777053178</v>
+        <v>7.763215438256099</v>
       </c>
       <c r="F5">
-        <v>17.13613183366646</v>
+        <v>20.12084584013635</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>3.342366520648547</v>
       </c>
       <c r="I5">
-        <v>12.89817481784018</v>
+        <v>3.936604836520988</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K5">
-        <v>11.67094310280151</v>
+        <v>17.27135214975458</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>10.09010354062197</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.09907976403339</v>
       </c>
       <c r="O5">
-        <v>14.05044725619018</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>8.75893673154866</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>17.20711944676392</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.40727075881278</v>
+        <v>11.15618862907108</v>
       </c>
       <c r="C6">
-        <v>8.117907264369492</v>
+        <v>7.914220516810107</v>
       </c>
       <c r="D6">
-        <v>4.382286499416456</v>
+        <v>5.29427364279779</v>
       </c>
       <c r="E6">
-        <v>25.35797053668554</v>
+        <v>7.754158279364537</v>
       </c>
       <c r="F6">
-        <v>17.12285614810169</v>
+        <v>20.09807151737845</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>3.350879864165034</v>
       </c>
       <c r="I6">
-        <v>12.9069917407558</v>
+        <v>3.946978389030939</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K6">
-        <v>11.63817651673506</v>
+        <v>17.26450916414713</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>10.06625711450858</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.092464152672867</v>
       </c>
       <c r="O6">
-        <v>14.05086977515591</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>8.741333469579804</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>17.19743386838591</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.68136410270254</v>
+        <v>11.41512218448966</v>
       </c>
       <c r="C7">
-        <v>8.276485155918364</v>
+        <v>7.983638005538543</v>
       </c>
       <c r="D7">
-        <v>4.42620513864285</v>
+        <v>5.345101226819748</v>
       </c>
       <c r="E7">
-        <v>26.02311733993996</v>
+        <v>7.79653529057079</v>
       </c>
       <c r="F7">
-        <v>17.21655815867551</v>
+        <v>20.16281176254317</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>3.295479958572062</v>
       </c>
       <c r="I7">
-        <v>12.84683158203539</v>
+        <v>3.902722106707688</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K7">
-        <v>11.8636967627874</v>
+        <v>17.24440132294682</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>10.24677048488053</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.143062380301908</v>
       </c>
       <c r="O7">
-        <v>14.04931413496058</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>8.860144082620572</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>17.19709295424935</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.8260112270509</v>
+        <v>12.49608988662119</v>
       </c>
       <c r="C8">
-        <v>8.943286856241199</v>
+        <v>8.271527711836791</v>
       </c>
       <c r="D8">
-        <v>4.61372523868789</v>
+        <v>5.558295151609519</v>
       </c>
       <c r="E8">
-        <v>28.81600522253785</v>
+        <v>7.983051769589351</v>
       </c>
       <c r="F8">
-        <v>17.66877419761617</v>
+        <v>20.48967661582512</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>3.059233143743322</v>
       </c>
       <c r="I8">
-        <v>12.60824383057532</v>
+        <v>3.708346144088169</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K8">
-        <v>12.81095389694658</v>
+        <v>17.18274878766711</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>11.00180012964026</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.3601595078237</v>
       </c>
       <c r="O8">
-        <v>14.07790247810946</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>9.367522998417019</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>17.22713749338615</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.83744580590103</v>
+        <v>14.38107755117418</v>
       </c>
       <c r="C9">
-        <v>10.13052621696645</v>
+        <v>8.790751517319606</v>
       </c>
       <c r="D9">
-        <v>4.956769522813479</v>
+        <v>5.943219051535404</v>
       </c>
       <c r="E9">
-        <v>33.80218767844861</v>
+        <v>8.335068742760338</v>
       </c>
       <c r="F9">
-        <v>18.69612417016289</v>
+        <v>21.22542653891097</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>2.626531864171578</v>
       </c>
       <c r="I9">
-        <v>12.24948536151263</v>
+        <v>3.345639640246541</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K9">
-        <v>14.49313600949229</v>
+        <v>17.12463513422348</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>12.33782246998497</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>6.763957633008577</v>
       </c>
       <c r="O9">
-        <v>14.27435149980526</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>10.29339751304566</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>17.36532575165239</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.17423014673452</v>
+        <v>15.60664331633176</v>
       </c>
       <c r="C10">
-        <v>10.92902733310036</v>
+        <v>9.202947137908787</v>
       </c>
       <c r="D10">
-        <v>5.192186168960358</v>
+        <v>6.234649538455103</v>
       </c>
       <c r="E10">
-        <v>37.18785137141801</v>
+        <v>8.468966801127349</v>
       </c>
       <c r="F10">
-        <v>19.53692164341024</v>
+        <v>21.64554795041724</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>2.356082509144166</v>
       </c>
       <c r="I10">
-        <v>12.06546455777073</v>
+        <v>3.108388593585567</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K10">
-        <v>15.62098014829977</v>
+        <v>16.99480416189285</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>13.25638722530208</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>6.946655530268838</v>
       </c>
       <c r="O10">
-        <v>14.51576481010674</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>10.84956742304922</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>17.38475393786903</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.75220206536927</v>
+        <v>16.06108747451348</v>
       </c>
       <c r="C11">
-        <v>11.27641883333599</v>
+        <v>9.786115067493483</v>
       </c>
       <c r="D11">
-        <v>5.295403033643158</v>
+        <v>6.573802012294619</v>
       </c>
       <c r="E11">
-        <v>38.67306467072071</v>
+        <v>7.76568430978783</v>
       </c>
       <c r="F11">
-        <v>19.93807894341742</v>
+        <v>20.66648860394915</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>3.18728411410006</v>
       </c>
       <c r="I11">
-        <v>12.00220682401467</v>
+        <v>3.05993353444986</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K11">
-        <v>16.11066345839569</v>
+        <v>16.12265170771173</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>13.84189381171094</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6.203476691008856</v>
       </c>
       <c r="O11">
-        <v>14.6490270364112</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>10.43846536748093</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>16.51756527932735</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.9667785223182</v>
+        <v>16.20551077923412</v>
       </c>
       <c r="C12">
-        <v>11.40571225738674</v>
+        <v>10.21956102935164</v>
       </c>
       <c r="D12">
-        <v>5.333912150628942</v>
+        <v>6.803520725290481</v>
       </c>
       <c r="E12">
-        <v>39.22806530073891</v>
+        <v>7.409823438374671</v>
       </c>
       <c r="F12">
-        <v>20.09267173705435</v>
+        <v>19.78048128436909</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>4.450720868468849</v>
       </c>
       <c r="I12">
-        <v>11.98148331394177</v>
+        <v>3.04817844654191</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K12">
-        <v>16.29275212227333</v>
+        <v>15.47375229631777</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>14.14698500054767</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>5.610552199302899</v>
       </c>
       <c r="O12">
-        <v>14.70304675844115</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>9.971276536570375</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>15.8161597764437</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.92075559620685</v>
+        <v>16.11656164631182</v>
       </c>
       <c r="C13">
-        <v>11.37796648214794</v>
+        <v>10.58103947835497</v>
       </c>
       <c r="D13">
-        <v>5.325644465751369</v>
+        <v>6.971756230596042</v>
       </c>
       <c r="E13">
-        <v>39.10885762076429</v>
+        <v>7.319253313095341</v>
       </c>
       <c r="F13">
-        <v>20.05925801502483</v>
+        <v>18.85995939551675</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>5.811304937412565</v>
       </c>
       <c r="I13">
-        <v>11.9857979788123</v>
+        <v>3.078249178960132</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K13">
-        <v>16.25368437854531</v>
+        <v>14.93153950531009</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>14.26902015793016</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5.120697194049113</v>
       </c>
       <c r="O13">
-        <v>14.69125158133825</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>9.421519241348625</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>15.1688683589146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.76994107143627</v>
+        <v>15.94593817064561</v>
       </c>
       <c r="C14">
-        <v>11.28710093294389</v>
+        <v>10.81153577844528</v>
       </c>
       <c r="D14">
-        <v>5.298582866738659</v>
+        <v>7.064944337889499</v>
       </c>
       <c r="E14">
-        <v>38.71887060897895</v>
+        <v>7.418890927537339</v>
       </c>
       <c r="F14">
-        <v>19.95074359107821</v>
+        <v>18.1921719354614</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>6.791678036222759</v>
       </c>
       <c r="I14">
-        <v>12.0004354086835</v>
+        <v>3.120838138171085</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K14">
-        <v>16.12571087315481</v>
+        <v>14.60697533266984</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>14.27465357040544</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>4.856920832617274</v>
       </c>
       <c r="O14">
-        <v>14.65339895538307</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>8.994526040636712</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>14.74134475627787</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.67700573851818</v>
+        <v>15.8513515562466</v>
       </c>
       <c r="C15">
-        <v>11.2311501829259</v>
+        <v>10.85426513477081</v>
       </c>
       <c r="D15">
-        <v>5.281931190906355</v>
+        <v>7.075457202076783</v>
       </c>
       <c r="E15">
-        <v>38.47904156149562</v>
+        <v>7.46083644518266</v>
       </c>
       <c r="F15">
-        <v>19.88462488969283</v>
+        <v>18.0143355998234</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>7.021990210243279</v>
       </c>
       <c r="I15">
-        <v>12.00983093847227</v>
+        <v>3.144877276341825</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K15">
-        <v>16.04688867581184</v>
+        <v>14.54264270147521</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>14.23806603133157</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>4.805149286473463</v>
       </c>
       <c r="O15">
-        <v>14.63068166933359</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>8.872435889896421</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>14.64289615384881</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.13585551819584</v>
+        <v>15.35982677763339</v>
       </c>
       <c r="C16">
-        <v>10.90600728613994</v>
+        <v>10.62627742653267</v>
       </c>
       <c r="D16">
-        <v>5.185360989924003</v>
+        <v>6.927589139977602</v>
       </c>
       <c r="E16">
-        <v>37.08972376444991</v>
+        <v>7.406662736433689</v>
       </c>
       <c r="F16">
-        <v>19.51108048910099</v>
+        <v>17.98139851221722</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>6.838081101138243</v>
       </c>
       <c r="I16">
-        <v>12.0700344858345</v>
+        <v>3.245735203508137</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K16">
-        <v>15.58850903657649</v>
+        <v>14.70352993733121</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>13.84729547009928</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>4.814212860811233</v>
       </c>
       <c r="O16">
-        <v>14.50754347419398</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>8.722986585748597</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>14.75392140548286</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.79618766354636</v>
+        <v>15.06916227192425</v>
       </c>
       <c r="C17">
-        <v>10.70249636403789</v>
+        <v>10.32027198166293</v>
       </c>
       <c r="D17">
-        <v>5.125110986791588</v>
+        <v>6.761172717171021</v>
       </c>
       <c r="E17">
-        <v>36.22367840395613</v>
+        <v>7.284963528637883</v>
       </c>
       <c r="F17">
-        <v>19.28670228497411</v>
+        <v>18.31541458078183</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>6.148482020488585</v>
       </c>
       <c r="I17">
-        <v>12.11240591915647</v>
+        <v>3.301275507830858</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K17">
-        <v>15.30132934549037</v>
+        <v>14.99181485857694</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>13.53820512046561</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>4.946892204805485</v>
       </c>
       <c r="O17">
-        <v>14.43813967010379</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>8.841672272225489</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>15.06276859810988</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.59797976508716</v>
+        <v>14.93140575635037</v>
       </c>
       <c r="C18">
-        <v>10.58394833709739</v>
+        <v>9.915635416386785</v>
       </c>
       <c r="D18">
-        <v>5.090093017688505</v>
+        <v>6.560402093583778</v>
       </c>
       <c r="E18">
-        <v>35.72034887044576</v>
+        <v>7.242364559840862</v>
       </c>
       <c r="F18">
-        <v>19.15940343725069</v>
+        <v>19.02310746339255</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>4.987418832747138</v>
       </c>
       <c r="I18">
-        <v>12.13868352901537</v>
+        <v>3.31219775329593</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K18">
-        <v>15.13394884629617</v>
+        <v>15.4585963281308</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>13.2667748952533</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.277268728727004</v>
       </c>
       <c r="O18">
-        <v>14.40041618432089</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>9.206985342897477</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>15.60000650646358</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.53038098110248</v>
+        <v>14.91913494055261</v>
       </c>
       <c r="C19">
-        <v>10.54355287864398</v>
+        <v>9.523796885250654</v>
       </c>
       <c r="D19">
-        <v>5.078174696980127</v>
+        <v>6.364397879664334</v>
       </c>
       <c r="E19">
-        <v>35.54902258646088</v>
+        <v>7.487863998278906</v>
       </c>
       <c r="F19">
-        <v>19.11660428206543</v>
+        <v>19.93206974069374</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>3.670177350093519</v>
       </c>
       <c r="I19">
-        <v>12.14789965520696</v>
+        <v>3.301253673557753</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K19">
-        <v>15.07689806891447</v>
+        <v>16.03960626570193</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>13.06030940440592</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>5.833304517046533</v>
       </c>
       <c r="O19">
-        <v>14.3880150549368</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>9.739335483504757</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>16.26352204302987</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.83263950938806</v>
+        <v>15.27680047913727</v>
       </c>
       <c r="C20">
-        <v>10.72431492728734</v>
+        <v>9.134849011831781</v>
       </c>
       <c r="D20">
-        <v>5.131562500189735</v>
+        <v>6.174548966179337</v>
       </c>
       <c r="E20">
-        <v>36.31640557838087</v>
+        <v>8.412484433784277</v>
       </c>
       <c r="F20">
-        <v>19.31040586747732</v>
+        <v>21.44319131107365</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>2.428244740273545</v>
       </c>
       <c r="I20">
-        <v>12.10769603959479</v>
+        <v>3.198130769661716</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K20">
-        <v>15.33212795257153</v>
+        <v>16.95948025257373</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>13.03556493826776</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>6.899127313964547</v>
       </c>
       <c r="O20">
-        <v>14.44529921451457</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>10.70070235312238</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>17.30973671690743</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.81435495716709</v>
+        <v>16.18694827643833</v>
       </c>
       <c r="C21">
-        <v>11.31385134915025</v>
+        <v>9.376538364938119</v>
       </c>
       <c r="D21">
-        <v>5.306547314451757</v>
+        <v>6.354343767982851</v>
       </c>
       <c r="E21">
-        <v>38.83361644406318</v>
+        <v>8.6793943317839</v>
       </c>
       <c r="F21">
-        <v>19.98254405978604</v>
+        <v>21.99601824531958</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>2.183426141682274</v>
       </c>
       <c r="I21">
-        <v>11.99604595098439</v>
+        <v>3.009176239931148</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K21">
-        <v>16.16339034317022</v>
+        <v>17.0237973197187</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>13.67713538980967</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>7.190759828366265</v>
       </c>
       <c r="O21">
-        <v>14.66441922171841</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>11.22986060743491</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>17.50149973516545</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.43098986305564</v>
+        <v>16.75789003893549</v>
       </c>
       <c r="C22">
-        <v>11.68601399054992</v>
+        <v>9.537621621589002</v>
       </c>
       <c r="D22">
-        <v>5.417540162881333</v>
+        <v>6.474607557538784</v>
       </c>
       <c r="E22">
-        <v>40.43578831932438</v>
+        <v>8.803337576010533</v>
       </c>
       <c r="F22">
-        <v>20.43747142702948</v>
+        <v>22.32738992548478</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>2.039048642367212</v>
       </c>
       <c r="I22">
-        <v>11.94205627103794</v>
+        <v>2.879635706194008</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K22">
-        <v>16.68719453067884</v>
+        <v>17.04835079079741</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>14.08592280769601</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>7.324619864805658</v>
       </c>
       <c r="O22">
-        <v>14.82843799045466</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>11.52782562419248</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>17.60768229651493</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.10414833494199</v>
+        <v>16.46185207584158</v>
       </c>
       <c r="C23">
-        <v>11.48857543426065</v>
+        <v>9.438252262171297</v>
       </c>
       <c r="D23">
-        <v>5.358615382633997</v>
+        <v>6.405494441306281</v>
       </c>
       <c r="E23">
-        <v>39.5844372001299</v>
+        <v>8.743871926349787</v>
       </c>
       <c r="F23">
-        <v>20.19323470954103</v>
+        <v>22.18126593637354</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>2.114892763632222</v>
       </c>
       <c r="I23">
-        <v>11.96903409273217</v>
+        <v>2.937124595776529</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K23">
-        <v>16.40940337131885</v>
+        <v>17.05916795471133</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>13.86439906497594</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>7.251784158450593</v>
       </c>
       <c r="O23">
-        <v>14.73893381639592</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>11.37055039420714</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>17.57428999754384</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.81616875425616</v>
+        <v>15.27771189729868</v>
       </c>
       <c r="C24">
-        <v>10.71445557468325</v>
+        <v>9.077572520594876</v>
       </c>
       <c r="D24">
-        <v>5.128646951340526</v>
+        <v>6.14528045625359</v>
       </c>
       <c r="E24">
-        <v>36.27450056728216</v>
+        <v>8.502936272093237</v>
       </c>
       <c r="F24">
-        <v>19.29968418497494</v>
+        <v>21.58774814295831</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>2.409841239002371</v>
       </c>
       <c r="I24">
-        <v>12.10981942459508</v>
+        <v>3.179820451446492</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K24">
-        <v>15.31821099610353</v>
+        <v>17.06960239443795</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>13.0004729941871</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>6.972647264829249</v>
       </c>
       <c r="O24">
-        <v>14.44205561556713</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>10.75409726757488</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>17.42226293613236</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.31818677321208</v>
+        <v>13.88639645283506</v>
       </c>
       <c r="C25">
-        <v>9.822316102905052</v>
+        <v>8.674566703475762</v>
       </c>
       <c r="D25">
-        <v>4.86678349489075</v>
+        <v>5.85026240150999</v>
       </c>
       <c r="E25">
-        <v>32.50371760334168</v>
+        <v>8.231986091414113</v>
       </c>
       <c r="F25">
-        <v>18.40308952641311</v>
+        <v>20.97149277763732</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>2.741825042144717</v>
       </c>
       <c r="I25">
-        <v>12.33357942279311</v>
+        <v>3.455713862869351</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K25">
-        <v>14.05701305694456</v>
+        <v>17.09974651293694</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>11.999513107242</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>6.659645722598402</v>
       </c>
       <c r="O25">
-        <v>14.20497179684659</v>
+        <v>10.04961225449381</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>17.28573477318037</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_44/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_44/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.7816126457737</v>
+        <v>12.75385065288389</v>
       </c>
       <c r="C2">
-        <v>8.330755535213511</v>
+        <v>8.162388954056514</v>
       </c>
       <c r="D2">
-        <v>5.607741947155539</v>
+        <v>5.627534378565606</v>
       </c>
       <c r="E2">
-        <v>8.040513597295917</v>
+        <v>7.912220319133574</v>
       </c>
       <c r="F2">
-        <v>20.62175651906969</v>
+        <v>19.74917762283141</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>2.996094712479941</v>
+        <v>2.842378794902128</v>
       </c>
       <c r="I2">
-        <v>3.646580959750398</v>
+        <v>3.455448875027921</v>
       </c>
       <c r="J2">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K2">
-        <v>17.19749837785911</v>
+        <v>16.3342676477911</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>13.08149416274715</v>
       </c>
       <c r="M2">
-        <v>11.19050459105925</v>
+        <v>11.06620656166282</v>
       </c>
       <c r="N2">
-        <v>6.415632870331381</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>9.501576473522418</v>
+        <v>11.33033613223949</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>6.578798325312619</v>
       </c>
       <c r="Q2">
-        <v>17.26776304099065</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>9.465532767397452</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>16.53790175563888</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.96066440566644</v>
+        <v>11.96073924603851</v>
       </c>
       <c r="C3">
-        <v>8.110286561171593</v>
+        <v>7.860375267184258</v>
       </c>
       <c r="D3">
-        <v>5.44421162862359</v>
+        <v>5.439408104818001</v>
       </c>
       <c r="E3">
-        <v>7.895481511170477</v>
+        <v>7.786849086746256</v>
       </c>
       <c r="F3">
-        <v>20.35273910037265</v>
+        <v>19.5546512389642</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3.177978827086773</v>
+        <v>3.012900412740309</v>
       </c>
       <c r="I3">
-        <v>3.797147838042411</v>
+        <v>3.591254818258015</v>
       </c>
       <c r="J3">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K3">
-        <v>17.23784945255081</v>
+        <v>16.42384091974895</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>13.2190185873082</v>
       </c>
       <c r="M3">
-        <v>10.61428322950114</v>
+        <v>11.0967637734036</v>
       </c>
       <c r="N3">
-        <v>6.247551896064715</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>9.110712296237127</v>
+        <v>10.74044782721215</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>6.414962268393684</v>
       </c>
       <c r="Q3">
-        <v>17.23417741912126</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>9.073917816917696</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>16.55914319354256</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.42545960907438</v>
+        <v>11.44406846596917</v>
       </c>
       <c r="C4">
-        <v>7.971970776734703</v>
+        <v>7.670923094356268</v>
       </c>
       <c r="D4">
-        <v>5.340821505798226</v>
+        <v>5.320522303003862</v>
       </c>
       <c r="E4">
-        <v>7.803401763155053</v>
+        <v>7.707077941469588</v>
       </c>
       <c r="F4">
-        <v>20.19324416928441</v>
+        <v>19.44052765136981</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3.293798834008905</v>
+        <v>3.12151240383911</v>
       </c>
       <c r="I4">
-        <v>3.893715436369876</v>
+        <v>3.678631980997301</v>
       </c>
       <c r="J4">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K4">
-        <v>17.26567362753817</v>
+        <v>16.48101819976387</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>13.30423074870776</v>
       </c>
       <c r="M4">
-        <v>10.24369851753776</v>
+        <v>11.13147348134159</v>
       </c>
       <c r="N4">
-        <v>6.142114030990593</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>8.862374197539685</v>
+        <v>10.36118242701312</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>6.31252845082642</v>
       </c>
       <c r="Q4">
-        <v>17.21862909619487</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>8.824869382973285</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>16.57656989745478</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.19728464058607</v>
+        <v>11.22391430168894</v>
       </c>
       <c r="C5">
-        <v>7.918574377524934</v>
+        <v>7.59727917052107</v>
       </c>
       <c r="D5">
-        <v>5.29941491587884</v>
+        <v>5.272764670399524</v>
       </c>
       <c r="E5">
-        <v>7.763215438256099</v>
+        <v>7.672085559330267</v>
       </c>
       <c r="F5">
-        <v>20.12084584013635</v>
+        <v>19.3868771506765</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>3.342366520648547</v>
+        <v>3.167075873285033</v>
       </c>
       <c r="I5">
-        <v>3.936604836520988</v>
+        <v>3.718173027265722</v>
       </c>
       <c r="J5">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K5">
-        <v>17.27135214975458</v>
+        <v>16.49892512271619</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>13.33350111090749</v>
       </c>
       <c r="M5">
-        <v>10.09010354062197</v>
+        <v>11.14630288726664</v>
       </c>
       <c r="N5">
-        <v>6.09907976403339</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>8.75893673154866</v>
+        <v>10.20393926032714</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>6.270789983620392</v>
       </c>
       <c r="Q5">
-        <v>17.20711944676392</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>8.721087229195833</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>16.57867705115696</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.15618862907108</v>
+        <v>11.18428148101045</v>
       </c>
       <c r="C6">
-        <v>7.914220516810107</v>
+        <v>7.590553872693312</v>
       </c>
       <c r="D6">
-        <v>5.29427364279779</v>
+        <v>5.266624433353241</v>
       </c>
       <c r="E6">
-        <v>7.754158279364537</v>
+        <v>7.664046544705356</v>
       </c>
       <c r="F6">
-        <v>20.09807151737845</v>
+        <v>19.36768341343298</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>3.350879864165034</v>
+        <v>3.175077642199307</v>
       </c>
       <c r="I6">
-        <v>3.946978389030939</v>
+        <v>3.72855510966205</v>
       </c>
       <c r="J6">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K6">
-        <v>17.26450916414713</v>
+        <v>16.49469291731534</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>13.33148017146934</v>
       </c>
       <c r="M6">
-        <v>10.06625711450858</v>
+        <v>11.14497830163553</v>
       </c>
       <c r="N6">
-        <v>6.092464152672867</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>8.741333469579804</v>
+        <v>10.17942340300144</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>6.264359027123274</v>
       </c>
       <c r="Q6">
-        <v>17.19743386838591</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>8.703433448224947</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>16.57168418210412</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.41512218448966</v>
+        <v>11.43412323361838</v>
       </c>
       <c r="C7">
-        <v>7.983638005538543</v>
+        <v>7.68507462211512</v>
       </c>
       <c r="D7">
-        <v>5.345101226819748</v>
+        <v>5.324882180669502</v>
       </c>
       <c r="E7">
-        <v>7.79653529057079</v>
+        <v>7.700704099594247</v>
       </c>
       <c r="F7">
-        <v>20.16281176254317</v>
+        <v>19.41166901167843</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>3.295479958572062</v>
+        <v>3.123127857343599</v>
       </c>
       <c r="I7">
-        <v>3.902722106707688</v>
+        <v>3.689079605867231</v>
       </c>
       <c r="J7">
-        <v>4.251792669778333</v>
+        <v>5.712988455786178</v>
       </c>
       <c r="K7">
-        <v>17.24440132294682</v>
+        <v>16.46158873774531</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>13.2862953497349</v>
       </c>
       <c r="M7">
-        <v>10.24677048488053</v>
+        <v>11.12024412615536</v>
       </c>
       <c r="N7">
-        <v>6.143062380301908</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>8.860144082620572</v>
+        <v>10.36404555880805</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>6.313396683169045</v>
       </c>
       <c r="Q7">
-        <v>17.19709295424935</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>8.822663754633082</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>16.55645685447609</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.49608988662119</v>
+        <v>12.47797965093228</v>
       </c>
       <c r="C8">
-        <v>8.271527711836791</v>
+        <v>8.078934472729594</v>
       </c>
       <c r="D8">
-        <v>5.558295151609519</v>
+        <v>5.569909434358141</v>
       </c>
       <c r="E8">
-        <v>7.983051769589351</v>
+        <v>7.86206416837028</v>
       </c>
       <c r="F8">
-        <v>20.48967661582512</v>
+        <v>19.64463259673614</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>3.059233143743322</v>
+        <v>2.901610316960372</v>
       </c>
       <c r="I8">
-        <v>3.708346144088169</v>
+        <v>3.514049749100035</v>
       </c>
       <c r="J8">
-        <v>4.251792669778333</v>
+        <v>5.711640832521052</v>
       </c>
       <c r="K8">
-        <v>17.18274878766711</v>
+        <v>16.33910915376325</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>13.10657935986916</v>
       </c>
       <c r="M8">
-        <v>11.00180012964026</v>
+        <v>11.05664978811209</v>
       </c>
       <c r="N8">
-        <v>6.3601595078237</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>9.367522998417019</v>
+        <v>11.13679311766477</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>6.52459165559815</v>
       </c>
       <c r="Q8">
-        <v>17.22713749338615</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>9.331309143204699</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>16.5180583439388</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.38107755117418</v>
+        <v>14.30056218470756</v>
       </c>
       <c r="C9">
-        <v>8.790751517319606</v>
+        <v>8.791038526443785</v>
       </c>
       <c r="D9">
-        <v>5.943219051535404</v>
+        <v>6.013349460353817</v>
       </c>
       <c r="E9">
-        <v>8.335068742760338</v>
+        <v>8.166079649902368</v>
       </c>
       <c r="F9">
-        <v>21.22542653891097</v>
+        <v>20.19256351480026</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>2.626531864171578</v>
+        <v>2.496070904848547</v>
       </c>
       <c r="I9">
-        <v>3.345639640246541</v>
+        <v>3.185942711373677</v>
       </c>
       <c r="J9">
-        <v>4.251792669778333</v>
+        <v>5.712301332179654</v>
       </c>
       <c r="K9">
-        <v>17.12463513422348</v>
+        <v>16.15131733706208</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>12.78909026904282</v>
       </c>
       <c r="M9">
-        <v>12.33782246998497</v>
+        <v>11.08304530063149</v>
       </c>
       <c r="N9">
-        <v>6.763957633008577</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>10.29339751304566</v>
+        <v>12.5051079981424</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>6.920032098173552</v>
       </c>
       <c r="Q9">
-        <v>17.36532575165239</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>10.25768986155082</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>16.5145923245149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.60664331633176</v>
+        <v>15.48936978979518</v>
       </c>
       <c r="C10">
-        <v>9.202947137908787</v>
+        <v>9.340566217510542</v>
       </c>
       <c r="D10">
-        <v>6.234649538455103</v>
+        <v>6.3437965730869</v>
       </c>
       <c r="E10">
-        <v>8.468966801127349</v>
+        <v>8.275049415840268</v>
       </c>
       <c r="F10">
-        <v>21.64554795041724</v>
+        <v>20.49363684998467</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>2.356082509144166</v>
+        <v>2.244587591026367</v>
       </c>
       <c r="I10">
-        <v>3.108388593585567</v>
+        <v>2.974094283646914</v>
       </c>
       <c r="J10">
-        <v>4.251792669778333</v>
+        <v>5.744419754315621</v>
       </c>
       <c r="K10">
-        <v>16.99480416189285</v>
+        <v>15.9402650168066</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>12.4978666785213</v>
       </c>
       <c r="M10">
-        <v>13.25638722530208</v>
+        <v>11.11182612160826</v>
       </c>
       <c r="N10">
-        <v>6.946655530268838</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>10.84956742304922</v>
+        <v>13.44302642496894</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>7.097595446110612</v>
       </c>
       <c r="Q10">
-        <v>17.38475393786903</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>10.81337639677631</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>16.44269840505222</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.06108747451348</v>
+        <v>15.95502009007581</v>
       </c>
       <c r="C11">
-        <v>9.786115067493483</v>
+        <v>9.990737006678129</v>
       </c>
       <c r="D11">
-        <v>6.573802012294619</v>
+        <v>6.686851746259409</v>
       </c>
       <c r="E11">
-        <v>7.76568430978783</v>
+        <v>7.638391441877437</v>
       </c>
       <c r="F11">
-        <v>20.66648860394915</v>
+        <v>19.60704419175955</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>3.18728411410006</v>
+        <v>3.108577060186844</v>
       </c>
       <c r="I11">
-        <v>3.05993353444986</v>
+        <v>2.935413273860988</v>
       </c>
       <c r="J11">
-        <v>4.251792669778333</v>
+        <v>5.942780798806006</v>
       </c>
       <c r="K11">
-        <v>16.12265170771173</v>
+        <v>15.18296697114764</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>11.91034591491338</v>
       </c>
       <c r="M11">
-        <v>13.84189381171094</v>
+        <v>10.58433568395596</v>
       </c>
       <c r="N11">
-        <v>6.203476691008856</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>10.43846536748093</v>
+        <v>14.01707656549827</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>6.345506583937712</v>
       </c>
       <c r="Q11">
-        <v>16.51756527932735</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>10.40407240218807</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>15.65988285811037</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.20551077923412</v>
+        <v>16.11617720695734</v>
       </c>
       <c r="C12">
-        <v>10.21956102935164</v>
+        <v>10.43174256676533</v>
       </c>
       <c r="D12">
-        <v>6.803520725290481</v>
+        <v>6.909036622847381</v>
       </c>
       <c r="E12">
-        <v>7.409823438374671</v>
+        <v>7.343826451132246</v>
       </c>
       <c r="F12">
-        <v>19.78048128436909</v>
+        <v>18.82271802663626</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.450720868468849</v>
+        <v>4.394089126702537</v>
       </c>
       <c r="I12">
-        <v>3.04817844654191</v>
+        <v>2.924182587457087</v>
       </c>
       <c r="J12">
-        <v>4.251792669778333</v>
+        <v>6.092466875987244</v>
       </c>
       <c r="K12">
-        <v>15.47375229631777</v>
+        <v>14.64281994332061</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>11.53127330266542</v>
       </c>
       <c r="M12">
-        <v>14.14698500054767</v>
+        <v>10.15749761922643</v>
       </c>
       <c r="N12">
-        <v>5.610552199302899</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>9.971276536570375</v>
+        <v>14.30789293410051</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>5.745303239381544</v>
       </c>
       <c r="Q12">
-        <v>15.8161597764437</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>9.938545819975344</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>15.04645321601312</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.11656164631182</v>
+        <v>16.04997840659173</v>
       </c>
       <c r="C13">
-        <v>10.58103947835497</v>
+        <v>10.76292062879218</v>
       </c>
       <c r="D13">
-        <v>6.971756230596042</v>
+        <v>7.061196532020168</v>
       </c>
       <c r="E13">
-        <v>7.319253313095341</v>
+        <v>7.306684695636041</v>
       </c>
       <c r="F13">
-        <v>18.85995939551675</v>
+        <v>18.02013158681284</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>5.811304937412565</v>
+        <v>5.765853300622114</v>
       </c>
       <c r="I13">
-        <v>3.078249178960132</v>
+        <v>2.950322624226226</v>
       </c>
       <c r="J13">
-        <v>4.251792669778333</v>
+        <v>6.056017976358584</v>
       </c>
       <c r="K13">
-        <v>14.93153950531009</v>
+        <v>14.21150356955783</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>11.25385492019892</v>
       </c>
       <c r="M13">
-        <v>14.26902015793016</v>
+        <v>9.771973750529623</v>
       </c>
       <c r="N13">
-        <v>5.120697194049113</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>9.421519241348625</v>
+        <v>14.41212889855735</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>5.2491956742298</v>
       </c>
       <c r="Q13">
-        <v>15.1688683589146</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>9.39035694739316</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>14.49675014717755</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.94593817064561</v>
+        <v>15.89837335877535</v>
       </c>
       <c r="C14">
-        <v>10.81153577844528</v>
+        <v>10.95454781959447</v>
       </c>
       <c r="D14">
-        <v>7.064944337889499</v>
+        <v>7.139061645773276</v>
       </c>
       <c r="E14">
-        <v>7.418890927537339</v>
+        <v>7.434815681362987</v>
       </c>
       <c r="F14">
-        <v>18.1921719354614</v>
+        <v>17.44237739061539</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>6.791678036222759</v>
+        <v>6.75084553929086</v>
       </c>
       <c r="I14">
-        <v>3.120838138171085</v>
+        <v>2.988755581962812</v>
       </c>
       <c r="J14">
-        <v>4.251792669778333</v>
+        <v>5.953276842055249</v>
       </c>
       <c r="K14">
-        <v>14.60697533266984</v>
+        <v>13.96289222566559</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>11.10148222610961</v>
       </c>
       <c r="M14">
-        <v>14.27465357040544</v>
+        <v>9.530476898265773</v>
       </c>
       <c r="N14">
-        <v>4.856920832617274</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>8.994526040636712</v>
+        <v>14.40337597660698</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>4.981514807614896</v>
       </c>
       <c r="Q14">
-        <v>14.74134475627787</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>8.964317670638989</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>14.14084293784678</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.8513515562466</v>
+        <v>15.80986107391497</v>
       </c>
       <c r="C15">
-        <v>10.85426513477081</v>
+        <v>10.98211781877703</v>
       </c>
       <c r="D15">
-        <v>7.075457202076783</v>
+        <v>7.144309952698127</v>
       </c>
       <c r="E15">
-        <v>7.46083644518266</v>
+        <v>7.481964438000809</v>
       </c>
       <c r="F15">
-        <v>18.0143355998234</v>
+        <v>17.29017139779052</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.021990210243279</v>
+        <v>6.981601729559419</v>
       </c>
       <c r="I15">
-        <v>3.144877276341825</v>
+        <v>3.011553546123824</v>
       </c>
       <c r="J15">
-        <v>4.251792669778333</v>
+        <v>5.901744702216713</v>
       </c>
       <c r="K15">
-        <v>14.54264270147521</v>
+        <v>13.91782570778871</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>11.07561085871692</v>
       </c>
       <c r="M15">
-        <v>14.23806603133157</v>
+        <v>9.479195131093023</v>
       </c>
       <c r="N15">
-        <v>4.805149286473463</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>8.872435889896421</v>
+        <v>14.36251257335085</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>4.929290604817506</v>
       </c>
       <c r="Q15">
-        <v>14.64289615384881</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>8.842407970403658</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>14.06203886640056</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.35982677763339</v>
+        <v>15.33051843213731</v>
       </c>
       <c r="C16">
-        <v>10.62627742653267</v>
+        <v>10.70624032338343</v>
       </c>
       <c r="D16">
-        <v>6.927589139977602</v>
+        <v>6.983714780093486</v>
       </c>
       <c r="E16">
-        <v>7.406662736433689</v>
+        <v>7.422654824569173</v>
       </c>
       <c r="F16">
-        <v>17.98139851221722</v>
+        <v>17.2864211850201</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>6.838081101138243</v>
+        <v>6.791879340521708</v>
       </c>
       <c r="I16">
-        <v>3.245735203508137</v>
+        <v>3.103314160927029</v>
       </c>
       <c r="J16">
-        <v>4.251792669778333</v>
+        <v>5.738831790925769</v>
       </c>
       <c r="K16">
-        <v>14.70352993733121</v>
+        <v>14.08550272167788</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>11.19831682461458</v>
       </c>
       <c r="M16">
-        <v>13.84729547009928</v>
+        <v>9.571364929890718</v>
       </c>
       <c r="N16">
-        <v>4.814212860811233</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>8.722986585748597</v>
+        <v>13.96608375946329</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>4.944153552282491</v>
       </c>
       <c r="Q16">
-        <v>14.75392140548286</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>8.692473345614244</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>14.19113870911986</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.06916227192425</v>
+        <v>15.03878451442007</v>
       </c>
       <c r="C17">
-        <v>10.32027198166293</v>
+        <v>10.38493183870468</v>
       </c>
       <c r="D17">
-        <v>6.761172717171021</v>
+        <v>6.815836323799404</v>
       </c>
       <c r="E17">
-        <v>7.284963528637883</v>
+        <v>7.284774520267103</v>
       </c>
       <c r="F17">
-        <v>18.31541458078183</v>
+        <v>17.59491900182601</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>6.148482020488585</v>
+        <v>6.094109602698381</v>
       </c>
       <c r="I17">
-        <v>3.301275507830858</v>
+        <v>3.154163431462697</v>
       </c>
       <c r="J17">
-        <v>4.251792669778333</v>
+        <v>5.713305037326998</v>
       </c>
       <c r="K17">
-        <v>14.99181485857694</v>
+        <v>14.34153012257167</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>11.38237534744987</v>
       </c>
       <c r="M17">
-        <v>13.53820512046561</v>
+        <v>9.758169136480255</v>
       </c>
       <c r="N17">
-        <v>4.946892204805485</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>8.841672272225489</v>
+        <v>13.66064551105619</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>5.08294557978109</v>
       </c>
       <c r="Q17">
-        <v>15.06276859810988</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>8.810389680728765</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>14.47695575523357</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.93140575635037</v>
+        <v>14.88797997016719</v>
       </c>
       <c r="C18">
-        <v>9.915635416386785</v>
+        <v>9.984768429428806</v>
       </c>
       <c r="D18">
-        <v>6.560402093583778</v>
+        <v>6.622321939351647</v>
       </c>
       <c r="E18">
-        <v>7.242364559840862</v>
+        <v>7.207495266188555</v>
       </c>
       <c r="F18">
-        <v>19.02310746339255</v>
+        <v>18.22561035664354</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.987418832747138</v>
+        <v>4.919430850741303</v>
       </c>
       <c r="I18">
-        <v>3.31219775329593</v>
+        <v>3.162145435769696</v>
       </c>
       <c r="J18">
-        <v>4.251792669778333</v>
+        <v>5.711150574177133</v>
       </c>
       <c r="K18">
-        <v>15.4585963281308</v>
+        <v>14.73407601220544</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>11.6700435232662</v>
       </c>
       <c r="M18">
-        <v>13.2667748952533</v>
+        <v>10.06102872242819</v>
       </c>
       <c r="N18">
-        <v>5.277268728727004</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>9.206985342897477</v>
+        <v>13.40123774970545</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>5.419314071347974</v>
       </c>
       <c r="Q18">
-        <v>15.60000650646358</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>9.174642027324749</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>14.95084773736224</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.91913494055261</v>
+        <v>14.85456758748215</v>
       </c>
       <c r="C19">
-        <v>9.523796885250654</v>
+        <v>9.605049496754381</v>
       </c>
       <c r="D19">
-        <v>6.364397879664334</v>
+        <v>6.438459898040845</v>
       </c>
       <c r="E19">
-        <v>7.487863998278906</v>
+        <v>7.398711558393291</v>
       </c>
       <c r="F19">
-        <v>19.93206974069374</v>
+        <v>19.02288291724229</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>3.670177350093519</v>
+        <v>3.580363863272934</v>
       </c>
       <c r="I19">
-        <v>3.301253673557753</v>
+        <v>3.15399284306624</v>
       </c>
       <c r="J19">
-        <v>4.251792669778333</v>
+        <v>5.711490394033017</v>
       </c>
       <c r="K19">
-        <v>16.03960626570193</v>
+        <v>15.20964058131816</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>12.02167134201712</v>
       </c>
       <c r="M19">
-        <v>13.06030940440592</v>
+        <v>10.4342959244062</v>
       </c>
       <c r="N19">
-        <v>5.833304517046533</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>9.739335483504757</v>
+        <v>13.21172198274283</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>5.980213076474622</v>
       </c>
       <c r="Q19">
-        <v>16.26352204302987</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>9.705719800905543</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>15.52251388008902</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.27680047913727</v>
+        <v>15.16964863822672</v>
       </c>
       <c r="C20">
-        <v>9.134849011831781</v>
+        <v>9.244884924990309</v>
       </c>
       <c r="D20">
-        <v>6.174548966179337</v>
+        <v>6.274005325401524</v>
       </c>
       <c r="E20">
-        <v>8.412484433784277</v>
+        <v>8.22673476619803</v>
       </c>
       <c r="F20">
-        <v>21.44319131107365</v>
+        <v>20.32723387777958</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>2.428244740273545</v>
+        <v>2.311653342792868</v>
       </c>
       <c r="I20">
-        <v>3.198130769661716</v>
+        <v>3.062681229621904</v>
       </c>
       <c r="J20">
-        <v>4.251792669778333</v>
+        <v>5.714445660903893</v>
       </c>
       <c r="K20">
-        <v>16.95948025257373</v>
+        <v>15.9337581090348</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>12.52871485776946</v>
       </c>
       <c r="M20">
-        <v>13.03556493826776</v>
+        <v>11.05107493334147</v>
       </c>
       <c r="N20">
-        <v>6.899127313964547</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>10.70070235312238</v>
+        <v>13.21678784128217</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>7.051105789482699</v>
       </c>
       <c r="Q20">
-        <v>17.30973671690743</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>10.66479642389872</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>16.39669586260312</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.18694827643833</v>
+        <v>16.04828621889314</v>
       </c>
       <c r="C21">
-        <v>9.376538364938119</v>
+        <v>9.583898211708338</v>
       </c>
       <c r="D21">
-        <v>6.354343767982851</v>
+        <v>6.484585580706844</v>
       </c>
       <c r="E21">
-        <v>8.6793943317839</v>
+        <v>8.461659845240005</v>
       </c>
       <c r="F21">
-        <v>21.99601824531958</v>
+        <v>20.76296842579278</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>2.183426141682274</v>
+        <v>2.081177051262778</v>
       </c>
       <c r="I21">
-        <v>3.009176239931148</v>
+        <v>2.893191016324298</v>
       </c>
       <c r="J21">
-        <v>4.251792669778333</v>
+        <v>6.072890156015645</v>
       </c>
       <c r="K21">
-        <v>17.0237973197187</v>
+        <v>15.90636127899528</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>12.40341799018341</v>
       </c>
       <c r="M21">
-        <v>13.67713538980967</v>
+        <v>11.19995580490233</v>
       </c>
       <c r="N21">
-        <v>7.190759828366265</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>11.22986060743491</v>
+        <v>13.87601069513893</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>7.340406977004177</v>
       </c>
       <c r="Q21">
-        <v>17.50149973516545</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>11.19286640719757</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>16.49466194471193</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.75789003893549</v>
+        <v>16.60090267727999</v>
       </c>
       <c r="C22">
-        <v>9.537621621589002</v>
+        <v>9.804785977206746</v>
       </c>
       <c r="D22">
-        <v>6.474607557538784</v>
+        <v>6.62355546303115</v>
       </c>
       <c r="E22">
-        <v>8.803337576010533</v>
+        <v>8.568806570252447</v>
       </c>
       <c r="F22">
-        <v>22.32738992548478</v>
+        <v>21.0256702127499</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>2.039048642367212</v>
+        <v>1.94602484424933</v>
       </c>
       <c r="I22">
-        <v>2.879635706194008</v>
+        <v>2.773687511366971</v>
       </c>
       <c r="J22">
-        <v>4.251792669778333</v>
+        <v>6.613666634130157</v>
       </c>
       <c r="K22">
-        <v>17.04835079079741</v>
+        <v>15.87618490429558</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>12.3096600228838</v>
       </c>
       <c r="M22">
-        <v>14.08592280769601</v>
+        <v>11.30055578390388</v>
       </c>
       <c r="N22">
-        <v>7.324619864805658</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>11.52782562419248</v>
+        <v>14.29485572699821</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>7.472761122682231</v>
       </c>
       <c r="Q22">
-        <v>17.60768229651493</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>11.49001402202263</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>16.5449604566401</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.46185207584158</v>
+        <v>16.31432359959486</v>
       </c>
       <c r="C23">
-        <v>9.438252262171297</v>
+        <v>9.670823253634946</v>
       </c>
       <c r="D23">
-        <v>6.405494441306281</v>
+        <v>6.544380531078653</v>
       </c>
       <c r="E23">
-        <v>8.743871926349787</v>
+        <v>8.517740105487455</v>
       </c>
       <c r="F23">
-        <v>22.18126593637354</v>
+        <v>20.91458923949347</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>2.114892763632222</v>
+        <v>2.016998555236932</v>
       </c>
       <c r="I23">
-        <v>2.937124595776529</v>
+        <v>2.8235912671129</v>
       </c>
       <c r="J23">
-        <v>4.251792669778333</v>
+        <v>6.216599296839348</v>
       </c>
       <c r="K23">
-        <v>17.05916795471133</v>
+        <v>15.91376421196412</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>12.37460684472751</v>
       </c>
       <c r="M23">
-        <v>13.86439906497594</v>
+        <v>11.26371349262533</v>
       </c>
       <c r="N23">
-        <v>7.251784158450593</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>11.37055039420714</v>
+        <v>14.06814009256475</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>7.400776783163872</v>
       </c>
       <c r="Q23">
-        <v>17.57428999754384</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>11.33316002950175</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>16.53979187405358</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.27771189729868</v>
+        <v>15.16821323554217</v>
       </c>
       <c r="C24">
-        <v>9.077572520594876</v>
+        <v>9.179850497524198</v>
       </c>
       <c r="D24">
-        <v>6.14528045625359</v>
+        <v>6.245008497980634</v>
       </c>
       <c r="E24">
-        <v>8.502936272093237</v>
+        <v>8.310175364050131</v>
       </c>
       <c r="F24">
-        <v>21.58774814295831</v>
+        <v>20.45799528409726</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>2.409841239002371</v>
+        <v>2.293139916749822</v>
       </c>
       <c r="I24">
-        <v>3.179820451446492</v>
+        <v>3.041106135758053</v>
       </c>
       <c r="J24">
-        <v>4.251792669778333</v>
+        <v>5.713894566704329</v>
       </c>
       <c r="K24">
-        <v>17.06960239443795</v>
+        <v>16.02788330997796</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>12.59929881770631</v>
       </c>
       <c r="M24">
-        <v>13.0004729941871</v>
+        <v>11.12354584368217</v>
       </c>
       <c r="N24">
-        <v>6.972647264829249</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>10.75409726757488</v>
+        <v>13.1834028000383</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>7.125303199081961</v>
       </c>
       <c r="Q24">
-        <v>17.42226293613236</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>10.71797452663433</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>16.49681888928575</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.88639645283506</v>
+        <v>13.8221052840756</v>
       </c>
       <c r="C25">
-        <v>8.674566703475762</v>
+        <v>8.628736972159317</v>
       </c>
       <c r="D25">
-        <v>5.85026240150999</v>
+        <v>5.905278048417742</v>
       </c>
       <c r="E25">
-        <v>8.231986091414113</v>
+        <v>8.076532852718698</v>
       </c>
       <c r="F25">
-        <v>20.97149277763732</v>
+        <v>19.99178611479713</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>2.741825042144717</v>
+        <v>2.604141781914468</v>
       </c>
       <c r="I25">
-        <v>3.455713862869351</v>
+        <v>3.289614325106898</v>
       </c>
       <c r="J25">
-        <v>4.251792669778333</v>
+        <v>5.711175322947495</v>
       </c>
       <c r="K25">
-        <v>17.09974651293694</v>
+        <v>16.1658948226269</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>12.84738772628142</v>
       </c>
       <c r="M25">
-        <v>11.999513107242</v>
+        <v>11.0368343959925</v>
       </c>
       <c r="N25">
-        <v>6.659645722598402</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>10.04961225449381</v>
+        <v>12.15816821892625</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>6.81752957297403</v>
       </c>
       <c r="Q25">
-        <v>17.28573477318037</v>
+        <v>10.01401738260413</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>16.47627163840695</v>
       </c>
     </row>
   </sheetData>
